--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    ENERO           2 0 2 2</t>
+  </si>
+  <si>
+    <t>Vacaciones Marisol</t>
+  </si>
+  <si>
+    <t>RETAZO-BOLA RES-PAPA</t>
+  </si>
+  <si>
+    <t>SALAMI</t>
+  </si>
+  <si>
+    <t>BOLA RES-ROASBEEF-BOLSA</t>
   </si>
 </sst>
 </file>
@@ -547,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1290,22 +1308,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1313,20 +1319,11 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1339,18 +1336,6 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1360,12 +1345,6 @@
     <xf numFmtId="44" fontId="14" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1378,9 +1357,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1498,18 +1474,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1565,28 +1529,7 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1595,21 +1538,6 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1627,33 +1555,12 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="31" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1773,6 +1680,119 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2485,1654 +2505,1972 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="135" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="117" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="13"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="H3" s="18" t="s">
+      <c r="B3" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="223"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+      <c r="I3" s="224"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
         <v>221059.7</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="H4" s="28" t="s">
+      <c r="F4" s="226"/>
+      <c r="H4" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33" t="s">
+      <c r="I4" s="228"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="36"/>
+      <c r="Q4" s="207"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="46">
-        <v>0</v>
-      </c>
-      <c r="N5" s="47">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="48">
+      <c r="B5" s="25">
+        <v>44564</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>44564</v>
+      </c>
+      <c r="F5" s="29">
+        <v>68050</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="30">
+        <v>44564</v>
+      </c>
+      <c r="I5" s="31">
+        <v>45</v>
+      </c>
+      <c r="J5" s="7">
+        <v>44564</v>
+      </c>
+      <c r="K5" s="229" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="32">
+        <f>30800+25622</f>
+        <v>56422</v>
+      </c>
+      <c r="N5" s="33">
+        <v>1583</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="20">
+        <v>68050</v>
+      </c>
+      <c r="Q5" s="13">
         <f>P5-F5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="49"/>
+      <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="46">
-        <v>0</v>
-      </c>
-      <c r="N6" s="47">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="48">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25">
+        <v>44565</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="28">
+        <v>44565</v>
+      </c>
+      <c r="F6" s="29">
+        <v>50460</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="37">
+        <v>44565</v>
+      </c>
+      <c r="I6" s="31">
+        <v>8</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="32">
+        <f>25000+30830</f>
+        <v>55830</v>
+      </c>
+      <c r="N6" s="33">
+        <v>1112</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="34">
         <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20">
+        <v>56950</v>
+      </c>
+      <c r="Q6" s="230">
         <f t="shared" ref="Q6:Q39" si="1">P6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="5"/>
+        <v>6490</v>
+      </c>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="46">
-        <v>0</v>
-      </c>
-      <c r="N7" s="47">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="48">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
+        <v>44566</v>
+      </c>
+      <c r="C7" s="26">
+        <v>7168</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="28">
+        <v>44566</v>
+      </c>
+      <c r="F7" s="29">
+        <v>41273</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="37">
+        <v>44566</v>
+      </c>
+      <c r="I7" s="31">
+        <v>30</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="32">
+        <f>15000+21355</f>
+        <v>36355</v>
+      </c>
+      <c r="N7" s="33">
+        <v>672</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="5"/>
+        <v>44225</v>
+      </c>
+      <c r="Q7" s="231">
+        <f t="shared" si="1"/>
+        <v>2952</v>
+      </c>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="46">
-        <v>0</v>
-      </c>
-      <c r="N8" s="47">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="48">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>44567</v>
+      </c>
+      <c r="C8" s="26">
+        <v>90</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="28">
+        <v>44567</v>
+      </c>
+      <c r="F8" s="29">
+        <v>55064</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="37">
+        <v>44567</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="32">
+        <f>20000+34920</f>
+        <v>54920</v>
+      </c>
+      <c r="N8" s="33">
+        <v>55</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="49"/>
+        <v>55065</v>
+      </c>
+      <c r="Q8" s="83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="35"/>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="46">
-        <v>0</v>
-      </c>
-      <c r="N9" s="47">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="48">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25">
+        <v>44568</v>
+      </c>
+      <c r="C9" s="26">
+        <v>5363</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="28">
+        <v>44568</v>
+      </c>
+      <c r="F9" s="29">
+        <v>79746</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="37">
+        <v>44568</v>
+      </c>
+      <c r="I9" s="31">
+        <v>43</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="32">
+        <f>20000+53830</f>
+        <v>73830</v>
+      </c>
+      <c r="N9" s="33">
+        <v>509</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="34">
         <f>N9+M9+L9+I9+C9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
+        <v>79745</v>
+      </c>
+      <c r="Q9" s="9">
         <f>P9-F9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5"/>
+        <v>-1</v>
+      </c>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="46">
-        <v>0</v>
-      </c>
-      <c r="N10" s="47">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="48">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
+        <v>44569</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="28">
+        <v>44569</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="37">
+        <v>44569</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="49"/>
+      <c r="Q10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="35"/>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="46">
-        <v>0</v>
-      </c>
-      <c r="N11" s="47">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="48">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
+        <v>44570</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="28">
+        <v>44570</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="37">
+        <v>44570</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34">
         <f>N11+M11+L11+I11+C11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="5"/>
+      <c r="Q11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="46">
-        <v>0</v>
-      </c>
-      <c r="N12" s="47">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="48">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25">
+        <v>44571</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="28">
+        <v>44571</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="37">
+        <v>44571</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="5"/>
+      <c r="Q12" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="46">
-        <v>0</v>
-      </c>
-      <c r="N13" s="47">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="48">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25">
+        <v>44572</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="28">
+        <v>44572</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="37">
+        <v>44572</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="65"/>
+      <c r="Q13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="46">
-        <v>0</v>
-      </c>
-      <c r="N14" s="47">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="48">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25">
+        <v>44573</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="28">
+        <v>44573</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="37">
+        <v>44573</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="65"/>
+      <c r="Q14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="46">
-        <v>0</v>
-      </c>
-      <c r="N15" s="47">
-        <v>0</v>
-      </c>
-      <c r="P15" s="48">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25">
+        <v>44574</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="28">
+        <v>44574</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="37">
+        <v>44574</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="5"/>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="46">
-        <v>0</v>
-      </c>
-      <c r="N16" s="47">
-        <v>0</v>
-      </c>
-      <c r="P16" s="48">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25">
+        <v>44575</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="28">
+        <v>44575</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="37">
+        <v>44575</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="5"/>
+      <c r="Q16" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="46">
-        <v>0</v>
-      </c>
-      <c r="N17" s="47">
-        <v>0</v>
-      </c>
-      <c r="P17" s="48">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25">
+        <v>44576</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="28">
+        <v>44576</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="37">
+        <v>44576</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="5"/>
+      <c r="Q17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="46">
-        <v>0</v>
-      </c>
-      <c r="N18" s="47">
-        <v>0</v>
-      </c>
-      <c r="P18" s="48">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25">
+        <v>44577</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="28">
+        <v>44577</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="37">
+        <v>44577</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="5"/>
+      <c r="Q18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="46">
-        <v>0</v>
-      </c>
-      <c r="N19" s="47">
-        <v>0</v>
-      </c>
-      <c r="P19" s="48">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25">
+        <v>44578</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="28">
+        <v>44578</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="37">
+        <v>44578</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="46">
-        <v>0</v>
-      </c>
-      <c r="N20" s="47">
-        <v>0</v>
-      </c>
-      <c r="P20" s="48">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25">
+        <v>44579</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="28">
+        <v>44579</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="37">
+        <v>44579</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="5"/>
+      <c r="Q20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="46">
-        <v>0</v>
-      </c>
-      <c r="N21" s="47">
-        <v>0</v>
-      </c>
-      <c r="P21" s="48">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25">
+        <v>44580</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28">
+        <v>44580</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="37">
+        <v>44580</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="5"/>
+      <c r="Q21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="46">
-        <v>0</v>
-      </c>
-      <c r="N22" s="47">
-        <v>0</v>
-      </c>
-      <c r="P22" s="48">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25">
+        <v>44581</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="28">
+        <v>44581</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="37">
+        <v>44581</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="5"/>
+      <c r="Q22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="46">
-        <v>0</v>
-      </c>
-      <c r="N23" s="47">
-        <v>0</v>
-      </c>
-      <c r="P23" s="48">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25">
+        <v>44582</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="28">
+        <v>44582</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="37">
+        <v>44582</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="5"/>
+      <c r="Q23" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="46">
-        <v>0</v>
-      </c>
-      <c r="N24" s="47">
-        <v>0</v>
-      </c>
-      <c r="P24" s="48">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25">
+        <v>44583</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="190"/>
+      <c r="E24" s="28">
+        <v>44583</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="37">
+        <v>44583</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="5"/>
+      <c r="Q24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="46">
-        <v>0</v>
-      </c>
-      <c r="N25" s="47">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25">
+        <v>44584</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="28">
+        <v>44584</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="37">
+        <v>44584</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
         <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="5"/>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2"/>
       <c r="S25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="46">
-        <v>0</v>
-      </c>
-      <c r="N26" s="47">
-        <v>0</v>
-      </c>
-      <c r="P26" s="48">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25">
+        <v>44585</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="28">
+        <v>44585</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="37">
+        <v>44585</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="49"/>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="35"/>
     </row>
     <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="46">
-        <v>0</v>
-      </c>
-      <c r="N27" s="47">
-        <v>0</v>
-      </c>
-      <c r="P27" s="48">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25">
+        <v>44586</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="28">
+        <v>44586</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="37">
+        <v>44586</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5"/>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="46">
-        <v>0</v>
-      </c>
-      <c r="N28" s="47">
-        <v>0</v>
-      </c>
-      <c r="P28" s="48">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25">
+        <v>44587</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28">
+        <v>44587</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="37">
+        <v>44587</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="5"/>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="46">
-        <v>0</v>
-      </c>
-      <c r="N29" s="47">
-        <v>0</v>
-      </c>
-      <c r="P29" s="48">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25">
+        <v>44588</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="28">
+        <v>44588</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="37">
+        <v>44588</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="5"/>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="46">
-        <v>0</v>
-      </c>
-      <c r="N30" s="47">
-        <v>0</v>
-      </c>
-      <c r="P30" s="48">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25">
+        <v>44589</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="28">
+        <v>44589</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="37">
+        <v>44589</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="5"/>
+      <c r="Q30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="46">
-        <v>0</v>
-      </c>
-      <c r="N31" s="47">
-        <v>0</v>
-      </c>
-      <c r="P31" s="48">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25">
+        <v>44590</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="85"/>
+      <c r="E31" s="28">
+        <v>44590</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="37">
+        <v>44590</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="5"/>
+      <c r="Q31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="46">
-        <v>0</v>
-      </c>
-      <c r="N32" s="47">
-        <v>0</v>
-      </c>
-      <c r="P32" s="48">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25">
+        <v>44591</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="28">
+        <v>44591</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="37">
+        <v>44591</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="5"/>
+      <c r="Q32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="46">
-        <v>0</v>
-      </c>
-      <c r="N33" s="47">
-        <v>0</v>
-      </c>
-      <c r="P33" s="48">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25">
+        <v>44592</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="28">
+        <v>44592</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="37">
+        <v>44592</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="5"/>
+      <c r="Q33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="46">
-        <v>0</v>
-      </c>
-      <c r="N34" s="47">
-        <v>0</v>
-      </c>
-      <c r="P34" s="48">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25">
+        <v>44593</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="28">
+        <v>44593</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="37">
+        <v>44593</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="5"/>
+      <c r="Q34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="46">
-        <v>0</v>
-      </c>
-      <c r="N35" s="47">
-        <v>0</v>
-      </c>
-      <c r="P35" s="48">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25">
+        <v>44594</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0</v>
+      </c>
+      <c r="D35" s="84"/>
+      <c r="E35" s="28">
+        <v>44594</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="37">
+        <v>44594</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="5"/>
+      <c r="Q35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="229"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="46">
-        <v>0</v>
-      </c>
-      <c r="N36" s="47">
-        <v>0</v>
-      </c>
-      <c r="P36" s="48">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25">
+        <v>44595</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0</v>
+      </c>
+      <c r="D36" s="85"/>
+      <c r="E36" s="28">
+        <v>44595</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="37">
+        <v>44595</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="5"/>
+      <c r="Q36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="46">
-        <v>0</v>
-      </c>
-      <c r="N37" s="47">
-        <v>0</v>
-      </c>
-      <c r="P37" s="48">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25">
+        <v>44596</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0</v>
+      </c>
+      <c r="D37" s="79"/>
+      <c r="E37" s="28">
+        <v>44596</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="37">
+        <v>44596</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="P37" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="46">
-        <v>0</v>
-      </c>
-      <c r="N38" s="47">
-        <v>0</v>
-      </c>
-      <c r="P38" s="48">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25">
+        <v>44597</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0</v>
+      </c>
+      <c r="D38" s="80"/>
+      <c r="E38" s="28">
+        <v>44597</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="37">
+        <v>44597</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="46">
-        <v>0</v>
-      </c>
-      <c r="N39" s="47">
-        <v>0</v>
-      </c>
-      <c r="P39" s="48">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25">
+        <v>44598</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0</v>
+      </c>
+      <c r="D39" s="80"/>
+      <c r="E39" s="28">
+        <v>44598</v>
+      </c>
+      <c r="F39" s="86"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="37">
+        <v>44598</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="105">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="208">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="106">
+        <v>277357</v>
+      </c>
+      <c r="N40" s="210">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="48">
+        <v>3931</v>
+      </c>
+      <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="13">
+        <v>304035</v>
+      </c>
+      <c r="Q40" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>0</v>
+        <v>9442</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="108"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="13"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="209"/>
+      <c r="N41" s="211"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="116"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="13"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="98"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="116"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="13"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="98"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="116"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="13"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="98"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="116"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="13"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="98"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="116"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="13"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="98"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="116"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="13"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="98"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="116"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="13"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="98"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="95"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="116"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="13"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="98"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="39">
-        <v>0</v>
-      </c>
-      <c r="D50" s="118"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="109"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="47"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="13"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="26">
+        <v>0</v>
+      </c>
+      <c r="D50" s="100"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="91"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="33"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="125">
+      <c r="C51" s="107">
         <f>SUM(C5:C50)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="126"/>
-      <c r="E51" s="127" t="s">
+        <v>12621</v>
+      </c>
+      <c r="D51" s="108"/>
+      <c r="E51" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="128">
+      <c r="F51" s="110">
         <f>SUM(F5:F50)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="126"/>
-      <c r="H51" s="129" t="s">
+        <v>294593</v>
+      </c>
+      <c r="G51" s="108"/>
+      <c r="H51" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="130">
+      <c r="I51" s="112">
         <f>SUM(I5:I50)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="131"/>
-      <c r="K51" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" s="113"/>
+      <c r="K51" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="133">
+      <c r="L51" s="115">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="13"/>
+        <v>10000</v>
+      </c>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="13"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="136"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="4"/>
-      <c r="H53" s="138" t="s">
+      <c r="A53" s="118"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="139"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="141">
+      <c r="I53" s="213"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="214">
         <f>I51+L51</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="142"/>
-      <c r="M53" s="143">
+        <v>10126</v>
+      </c>
+      <c r="L53" s="215"/>
+      <c r="M53" s="216">
         <f>N40+M40</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="144"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="13"/>
+        <v>281288</v>
+      </c>
+      <c r="N53" s="217"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="145" t="s">
+      <c r="D54" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="145"/>
-      <c r="F54" s="146">
+      <c r="E54" s="193"/>
+      <c r="F54" s="121">
         <f>F51-K53-C51</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="147"/>
-      <c r="J54" s="148"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="13"/>
+        <v>271846</v>
+      </c>
+      <c r="I54" s="122"/>
+      <c r="J54" s="123"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="149" t="s">
+      <c r="D55" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="149"/>
-      <c r="F55" s="134">
-        <v>0</v>
-      </c>
-      <c r="I55" s="150" t="s">
+      <c r="E55" s="194"/>
+      <c r="F55" s="116">
+        <v>0</v>
+      </c>
+      <c r="I55" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="151"/>
-      <c r="K55" s="152">
+      <c r="J55" s="196"/>
+      <c r="K55" s="197">
         <f>F57+F58+F59</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="153"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="13"/>
+        <v>271846</v>
+      </c>
+      <c r="L55" s="198"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="154"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="155">
-        <v>0</v>
-      </c>
-      <c r="I56" s="156"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="159"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="125">
+        <v>0</v>
+      </c>
+      <c r="I56" s="126"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="129"/>
     </row>
     <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="136" t="s">
+      <c r="E57" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="134">
+      <c r="F57" s="116">
         <f>SUM(F54:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="160" t="s">
+        <v>271846</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="161"/>
-      <c r="K57" s="162">
+      <c r="J57" s="131"/>
+      <c r="K57" s="199">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="163"/>
+      <c r="L57" s="200"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="164" t="s">
+      <c r="D58" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="136" t="s">
+      <c r="E58" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="165">
+      <c r="F58" s="133">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="166"/>
-      <c r="D59" s="167" t="s">
+      <c r="C59" s="134"/>
+      <c r="D59" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="168"/>
-      <c r="F59" s="169">
-        <v>0</v>
-      </c>
-      <c r="I59" s="170" t="s">
+      <c r="E59" s="202"/>
+      <c r="F59" s="135">
+        <v>0</v>
+      </c>
+      <c r="I59" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="171"/>
-      <c r="K59" s="172">
+      <c r="J59" s="204"/>
+      <c r="K59" s="205">
         <f>K55+K57</f>
-        <v>-221059.7</v>
-      </c>
-      <c r="L59" s="172"/>
+        <v>50786.299999999988</v>
+      </c>
+      <c r="L59" s="205"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C60" s="173"/>
-      <c r="D60" s="174"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="176"/>
-      <c r="J60" s="177"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="139"/>
+      <c r="J60" s="140"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
-      <c r="K61" s="179"/>
-      <c r="L61" s="179"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="141"/>
+      <c r="K61" s="142"/>
+      <c r="L61" s="142"/>
     </row>
     <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="180"/>
-      <c r="C62" s="181"/>
-      <c r="D62" s="182"/>
-      <c r="E62" s="48"/>
-      <c r="I62" s="178"/>
-      <c r="J62" s="178"/>
-      <c r="K62" s="179"/>
-      <c r="L62" s="179"/>
-      <c r="M62" s="183"/>
-      <c r="N62" s="136"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="34"/>
+      <c r="I62" s="141"/>
+      <c r="J62" s="141"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="142"/>
+      <c r="M62" s="146"/>
+      <c r="N62" s="118"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="180"/>
-      <c r="C63" s="184"/>
-      <c r="E63" s="48"/>
-      <c r="M63" s="183"/>
-      <c r="N63" s="136"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="147"/>
+      <c r="E63" s="34"/>
+      <c r="M63" s="146"/>
+      <c r="N63" s="118"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="180"/>
-      <c r="C64" s="184"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="185"/>
-      <c r="L64" s="186"/>
-      <c r="M64" s="4"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="147"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="148"/>
+      <c r="L64" s="149"/>
+      <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="180"/>
-      <c r="C65" s="184"/>
-      <c r="E65" s="48"/>
-      <c r="M65" s="4"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="147"/>
+      <c r="E65" s="34"/>
+      <c r="M65" s="1"/>
     </row>
     <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="180"/>
-      <c r="C66" s="184"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="188"/>
-      <c r="M66" s="4"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="150"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="151"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="187"/>
-      <c r="E67" s="189"/>
-      <c r="F67" s="48"/>
-      <c r="M67" s="4"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="152"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="187"/>
-      <c r="E68" s="189"/>
-      <c r="F68" s="48"/>
-      <c r="M68" s="4"/>
+      <c r="D68" s="150"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="187"/>
-      <c r="E69" s="189"/>
-      <c r="F69" s="48"/>
-      <c r="M69" s="4"/>
+      <c r="D69" s="150"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="187"/>
-      <c r="E70" s="189"/>
-      <c r="F70" s="48"/>
-      <c r="M70" s="4"/>
+      <c r="D70" s="150"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="187"/>
-      <c r="E71" s="189"/>
-      <c r="F71" s="48"/>
-      <c r="M71" s="4"/>
+      <c r="D71" s="150"/>
+      <c r="E71" s="152"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="187"/>
-      <c r="E72" s="189"/>
-      <c r="F72" s="48"/>
-      <c r="M72" s="4"/>
+      <c r="D72" s="150"/>
+      <c r="E72" s="152"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="187"/>
-      <c r="E73" s="189"/>
-      <c r="F73" s="48"/>
-      <c r="M73" s="4"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="152"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="187"/>
-      <c r="E74" s="189"/>
-      <c r="F74" s="48"/>
-      <c r="M74" s="4"/>
+      <c r="D74" s="150"/>
+      <c r="E74" s="152"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="187"/>
-      <c r="E75" s="189"/>
-      <c r="F75" s="48"/>
-      <c r="M75" s="4"/>
+      <c r="D75" s="150"/>
+      <c r="E75" s="152"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="187"/>
-      <c r="E76" s="189"/>
-      <c r="F76" s="48"/>
-      <c r="M76" s="4"/>
+      <c r="D76" s="150"/>
+      <c r="E76" s="152"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="187"/>
-      <c r="E77" s="189"/>
-      <c r="F77" s="48"/>
-      <c r="M77" s="4"/>
+      <c r="D77" s="150"/>
+      <c r="E77" s="152"/>
+      <c r="F77" s="34"/>
+      <c r="M77" s="1"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="187"/>
-      <c r="E78" s="189"/>
-      <c r="F78" s="48"/>
+      <c r="D78" s="150"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="34"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="187"/>
-      <c r="E79" s="187"/>
-      <c r="F79" s="188"/>
+      <c r="D79" s="150"/>
+      <c r="E79" s="150"/>
+      <c r="F79" s="151"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="187"/>
-      <c r="E80" s="187"/>
-      <c r="F80" s="188"/>
+      <c r="D80" s="150"/>
+      <c r="E80" s="150"/>
+      <c r="F80" s="151"/>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="187"/>
-      <c r="E81" s="187"/>
-      <c r="F81" s="188"/>
+      <c r="D81" s="150"/>
+      <c r="E81" s="150"/>
+      <c r="F81" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -4142,12 +4480,11 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4169,1327 +4506,1327 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="136" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="118" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="195" t="s">
+      <c r="D2" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="196" t="s">
+      <c r="E2" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="160" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="198"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="226">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="189">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="201"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="203">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="166">
         <f>C4-E4+F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="201"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="203">
+      <c r="A5" s="164"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="166">
         <f>C5-E5+F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="204">
+      <c r="A6" s="164"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="167">
         <f>F5+C6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="205"/>
+      <c r="G6" s="168"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="201"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="204">
+      <c r="A7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="167">
         <f t="shared" ref="F7" si="0">F6+C7-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="201"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="204">
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="167">
         <f>F7+C8-E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="204">
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="167">
         <f>F8+C9-E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="201"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="204">
+      <c r="A10" s="164"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="167">
         <f>F9+C10-E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="201"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="204">
+      <c r="A11" s="164"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="167">
         <f t="shared" ref="F11:F74" si="1">F10+C11-E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="201"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="204">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="205"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="167">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="168"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="201"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="204">
+      <c r="A13" s="164"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="204">
+      <c r="A14" s="164"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="201"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="206">
+      <c r="A15" s="164"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="169">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="201"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="204">
+      <c r="A16" s="164"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="204">
+      <c r="A17" s="164"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="204">
+      <c r="A18" s="164"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="201"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="204">
+      <c r="A19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="204">
+      <c r="A20" s="164"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="201"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="204">
+      <c r="A21" s="164"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="201"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="204">
+      <c r="A22" s="164"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="201"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="204">
+      <c r="A23" s="164"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="201"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="204">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="205"/>
+      <c r="A24" s="164"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="167">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="168"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="201"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="204">
+      <c r="A25" s="164"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="201"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="204">
+      <c r="A26" s="164"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="201"/>
-      <c r="B27" s="202"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="204">
+      <c r="A27" s="164"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="201"/>
-      <c r="B28" s="202"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="204">
+      <c r="A28" s="164"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="201"/>
-      <c r="B29" s="202"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="204">
+      <c r="A29" s="164"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="201"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="204">
+      <c r="A30" s="164"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="201"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="204">
+      <c r="A31" s="164"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="201"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="204">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="205"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="167">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="168"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="201"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="204">
+      <c r="A33" s="164"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="201"/>
-      <c r="B34" s="202"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="204">
+      <c r="A34" s="164"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="201"/>
-      <c r="B35" s="202"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="204">
+      <c r="A35" s="164"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="201"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="204">
+      <c r="A36" s="164"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="201"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="204">
+      <c r="A37" s="164"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="201"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="204">
+      <c r="A38" s="164"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="201"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="204">
+      <c r="A39" s="164"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="201"/>
-      <c r="B40" s="202"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="204">
+      <c r="A40" s="164"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="201"/>
-      <c r="B41" s="202"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="204">
+      <c r="A41" s="164"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="201"/>
-      <c r="B42" s="202"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="201"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="204">
+      <c r="A42" s="164"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="201"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="201"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="204">
+      <c r="A43" s="164"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="201"/>
-      <c r="B44" s="202"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="201"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="204">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="201"/>
-      <c r="B45" s="202"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="201"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="204">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="201"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="201"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="204">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="201"/>
-      <c r="B47" s="202"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="201"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="204">
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="201"/>
-      <c r="B48" s="202"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="204">
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="201"/>
-      <c r="B49" s="202"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="201"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="204">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="201"/>
-      <c r="B50" s="202"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="204">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="201"/>
-      <c r="B51" s="202"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="201"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="204">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="201"/>
-      <c r="B52" s="202"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="204">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="201"/>
-      <c r="B53" s="202"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="204">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="201"/>
-      <c r="B54" s="202"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="204">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="201"/>
-      <c r="B55" s="202"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="201"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="204">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="207"/>
-      <c r="B56" s="202"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="201"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="204">
+      <c r="A56" s="170"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="207"/>
-      <c r="B57" s="202"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="204">
+      <c r="A57" s="170"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="207"/>
-      <c r="B58" s="202"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="204">
+      <c r="A58" s="170"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="201"/>
-      <c r="B59" s="202"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="204">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="201"/>
-      <c r="B60" s="202"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="201"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="204">
+      <c r="A60" s="164"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="201"/>
-      <c r="B61" s="202"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="204">
+      <c r="A61" s="164"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="207"/>
-      <c r="B62" s="202"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="201"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="204">
+      <c r="A62" s="170"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="207"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="201"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="204">
+      <c r="A63" s="170"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="207"/>
-      <c r="B64" s="202"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="201"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="204">
+      <c r="A64" s="170"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="208"/>
-      <c r="B65" s="209"/>
-      <c r="C65" s="210"/>
-      <c r="D65" s="201"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="204">
+      <c r="A65" s="171"/>
+      <c r="B65" s="172"/>
+      <c r="C65" s="173"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="208"/>
-      <c r="B66" s="209"/>
-      <c r="C66" s="210"/>
-      <c r="D66" s="201"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="204">
+      <c r="A66" s="171"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="208"/>
-      <c r="B67" s="209"/>
-      <c r="C67" s="210"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="204">
+      <c r="A67" s="171"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="173"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="208"/>
-      <c r="B68" s="209"/>
-      <c r="C68" s="210"/>
-      <c r="D68" s="201"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="204">
+      <c r="A68" s="171"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="173"/>
+      <c r="D68" s="164"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="208"/>
-      <c r="B69" s="209"/>
-      <c r="C69" s="210"/>
-      <c r="D69" s="201"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="204">
+      <c r="A69" s="171"/>
+      <c r="B69" s="172"/>
+      <c r="C69" s="173"/>
+      <c r="D69" s="164"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="208"/>
-      <c r="B70" s="209"/>
-      <c r="C70" s="210"/>
-      <c r="D70" s="201"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="204">
+      <c r="A70" s="171"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="164"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="208"/>
-      <c r="B71" s="209"/>
-      <c r="C71" s="210"/>
-      <c r="D71" s="201"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="204">
+      <c r="A71" s="171"/>
+      <c r="B71" s="172"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="208"/>
-      <c r="B72" s="209"/>
-      <c r="C72" s="210"/>
-      <c r="D72" s="201"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="204">
+      <c r="A72" s="171"/>
+      <c r="B72" s="172"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="208"/>
-      <c r="B73" s="209"/>
-      <c r="C73" s="210"/>
-      <c r="D73" s="201"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="204">
+      <c r="A73" s="171"/>
+      <c r="B73" s="172"/>
+      <c r="C73" s="173"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="208"/>
-      <c r="B74" s="209"/>
-      <c r="C74" s="210"/>
-      <c r="D74" s="201"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="204">
+      <c r="A74" s="171"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="167">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="208"/>
-      <c r="B75" s="209"/>
-      <c r="C75" s="210"/>
-      <c r="D75" s="201"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="204">
+      <c r="A75" s="171"/>
+      <c r="B75" s="172"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="167">
         <f t="shared" ref="F75:F99" si="2">F74+C75-E75</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="208"/>
-      <c r="B76" s="209"/>
-      <c r="C76" s="210"/>
-      <c r="D76" s="201"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="204">
+      <c r="A76" s="171"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="208"/>
-      <c r="B77" s="209"/>
-      <c r="C77" s="210"/>
-      <c r="D77" s="201"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="204">
+      <c r="A77" s="171"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="208"/>
-      <c r="B78" s="209"/>
-      <c r="C78" s="210"/>
-      <c r="D78" s="201"/>
-      <c r="E78" s="101"/>
-      <c r="F78" s="204">
+      <c r="A78" s="171"/>
+      <c r="B78" s="172"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="208"/>
-      <c r="B79" s="209"/>
-      <c r="C79" s="210"/>
-      <c r="D79" s="201"/>
-      <c r="E79" s="101"/>
-      <c r="F79" s="204">
+      <c r="A79" s="171"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="208"/>
-      <c r="B80" s="209"/>
-      <c r="C80" s="210"/>
-      <c r="D80" s="201"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="204">
+      <c r="A80" s="171"/>
+      <c r="B80" s="172"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="208"/>
-      <c r="B81" s="209"/>
-      <c r="C81" s="210"/>
-      <c r="D81" s="201"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="204">
+      <c r="A81" s="171"/>
+      <c r="B81" s="172"/>
+      <c r="C81" s="173"/>
+      <c r="D81" s="164"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="208"/>
-      <c r="B82" s="209"/>
-      <c r="C82" s="210"/>
-      <c r="D82" s="201"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="204">
+      <c r="A82" s="171"/>
+      <c r="B82" s="172"/>
+      <c r="C82" s="173"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="211"/>
-      <c r="B83" s="212"/>
-      <c r="C83" s="213"/>
-      <c r="D83" s="214"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="204">
+      <c r="A83" s="174"/>
+      <c r="B83" s="175"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="177"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="211"/>
-      <c r="B84" s="212"/>
-      <c r="C84" s="213"/>
-      <c r="D84" s="214"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="204">
+      <c r="A84" s="174"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="177"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="211"/>
-      <c r="B85" s="212"/>
-      <c r="C85" s="213"/>
-      <c r="D85" s="214"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="204">
+      <c r="A85" s="174"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="177"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="211"/>
-      <c r="B86" s="212"/>
-      <c r="C86" s="213"/>
-      <c r="D86" s="214"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="204">
+      <c r="A86" s="174"/>
+      <c r="B86" s="175"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="177"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="211"/>
-      <c r="B87" s="212"/>
-      <c r="C87" s="213"/>
-      <c r="D87" s="214"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="204">
+      <c r="A87" s="174"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="176"/>
+      <c r="D87" s="177"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="211"/>
-      <c r="B88" s="212"/>
-      <c r="C88" s="213"/>
-      <c r="D88" s="214"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="204">
+      <c r="A88" s="174"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="176"/>
+      <c r="D88" s="177"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="208"/>
-      <c r="B89" s="209"/>
-      <c r="C89" s="210"/>
-      <c r="D89" s="215"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="204">
+      <c r="A89" s="171"/>
+      <c r="B89" s="172"/>
+      <c r="C89" s="173"/>
+      <c r="D89" s="178"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="208"/>
-      <c r="B90" s="209"/>
-      <c r="C90" s="210"/>
-      <c r="D90" s="215"/>
-      <c r="E90" s="101"/>
-      <c r="F90" s="204">
+      <c r="A90" s="171"/>
+      <c r="B90" s="172"/>
+      <c r="C90" s="173"/>
+      <c r="D90" s="178"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="208"/>
-      <c r="B91" s="209"/>
-      <c r="C91" s="210"/>
-      <c r="D91" s="215"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="204">
+      <c r="A91" s="171"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="173"/>
+      <c r="D91" s="178"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="208"/>
-      <c r="B92" s="209"/>
-      <c r="C92" s="210"/>
-      <c r="D92" s="215"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="204">
+      <c r="A92" s="171"/>
+      <c r="B92" s="172"/>
+      <c r="C92" s="173"/>
+      <c r="D92" s="178"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="208"/>
-      <c r="B93" s="209"/>
-      <c r="C93" s="210"/>
-      <c r="D93" s="215"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="204">
+      <c r="A93" s="171"/>
+      <c r="B93" s="172"/>
+      <c r="C93" s="173"/>
+      <c r="D93" s="178"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="208"/>
-      <c r="B94" s="209"/>
-      <c r="C94" s="210"/>
-      <c r="D94" s="215"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="204">
+      <c r="A94" s="171"/>
+      <c r="B94" s="172"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="178"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="208"/>
-      <c r="B95" s="209"/>
-      <c r="C95" s="210"/>
-      <c r="D95" s="215"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="204">
+      <c r="A95" s="171"/>
+      <c r="B95" s="172"/>
+      <c r="C95" s="173"/>
+      <c r="D95" s="178"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="208"/>
-      <c r="B96" s="209"/>
-      <c r="C96" s="210"/>
-      <c r="D96" s="215"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="204">
+      <c r="A96" s="171"/>
+      <c r="B96" s="172"/>
+      <c r="C96" s="173"/>
+      <c r="D96" s="178"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="208"/>
-      <c r="B97" s="209"/>
-      <c r="C97" s="210"/>
-      <c r="D97" s="215"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="204">
+      <c r="A97" s="171"/>
+      <c r="B97" s="172"/>
+      <c r="C97" s="173"/>
+      <c r="D97" s="178"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="208"/>
-      <c r="B98" s="209"/>
-      <c r="C98" s="210"/>
-      <c r="D98" s="215"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="204">
+      <c r="A98" s="171"/>
+      <c r="B98" s="172"/>
+      <c r="C98" s="173"/>
+      <c r="D98" s="178"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="216"/>
-      <c r="B99" s="217"/>
-      <c r="C99" s="48">
-        <v>0</v>
-      </c>
-      <c r="D99" s="218"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="204">
+      <c r="A99" s="179"/>
+      <c r="B99" s="180"/>
+      <c r="C99" s="34">
+        <v>0</v>
+      </c>
+      <c r="D99" s="181"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="219"/>
-      <c r="B100" s="220"/>
-      <c r="C100" s="221">
+      <c r="A100" s="182"/>
+      <c r="B100" s="183"/>
+      <c r="C100" s="184">
         <f>SUM(C5:C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="222"/>
-      <c r="E100" s="223">
+      <c r="D100" s="185"/>
+      <c r="E100" s="186">
         <f>SUM(E5:E99)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="224">
+      <c r="F100" s="187">
         <f>F99</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="136"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="4"/>
+      <c r="B101" s="118"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="136"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="135"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="4"/>
+      <c r="B102" s="118"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103"/>
-      <c r="B103" s="37"/>
-      <c r="D103" s="37"/>
+      <c r="B103" s="24"/>
+      <c r="D103" s="24"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104"/>
-      <c r="B104" s="37"/>
-      <c r="D104" s="37"/>
+      <c r="B104" s="24"/>
+      <c r="D104" s="24"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105"/>
-      <c r="B105" s="37"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="24"/>
+      <c r="D105" s="24"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106"/>
-      <c r="B106" s="37"/>
-      <c r="D106" s="37"/>
+      <c r="B106" s="24"/>
+      <c r="D106" s="24"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107"/>
-      <c r="B107" s="37"/>
-      <c r="D107" s="37"/>
+      <c r="B107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108"/>
-      <c r="B108" s="37"/>
-      <c r="D108" s="37"/>
+      <c r="B108" s="24"/>
+      <c r="D108" s="24"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109"/>
-      <c r="B109" s="37"/>
-      <c r="D109" s="37"/>
+      <c r="B109" s="24"/>
+      <c r="D109" s="24"/>
       <c r="F109"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110"/>
-      <c r="B110" s="37"/>
-      <c r="D110" s="37"/>
+      <c r="B110" s="24"/>
+      <c r="D110" s="24"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111"/>
-      <c r="B111" s="37"/>
-      <c r="D111" s="37"/>
+      <c r="B111" s="24"/>
+      <c r="D111" s="24"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112"/>
-      <c r="B112" s="37"/>
-      <c r="D112" s="37"/>
+      <c r="B112" s="24"/>
+      <c r="D112" s="24"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113"/>
-      <c r="B113" s="37"/>
-      <c r="D113" s="37"/>
+      <c r="B113" s="24"/>
+      <c r="D113" s="24"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114"/>
-      <c r="B114" s="37"/>
-      <c r="D114" s="37"/>
+      <c r="B114" s="24"/>
+      <c r="D114" s="24"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115"/>
-      <c r="B115" s="37"/>
-      <c r="D115" s="37"/>
+      <c r="B115" s="24"/>
+      <c r="D115" s="24"/>
       <c r="E115"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116"/>
-      <c r="B116" s="37"/>
-      <c r="D116" s="37"/>
+      <c r="B116" s="24"/>
+      <c r="D116" s="24"/>
       <c r="E116"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117"/>
-      <c r="B117" s="37"/>
-      <c r="D117" s="37"/>
+      <c r="B117" s="24"/>
+      <c r="D117" s="24"/>
       <c r="E117"/>
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118"/>
-      <c r="B118" s="37"/>
-      <c r="D118" s="37"/>
+      <c r="B118" s="24"/>
+      <c r="D118" s="24"/>
       <c r="E118"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119"/>
-      <c r="B119" s="37"/>
-      <c r="D119" s="37"/>
+      <c r="B119" s="24"/>
+      <c r="D119" s="24"/>
       <c r="E119"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120"/>
-      <c r="B120" s="37"/>
-      <c r="D120" s="37"/>
+      <c r="B120" s="24"/>
+      <c r="D120" s="24"/>
       <c r="E120"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="37"/>
-      <c r="D121" s="37"/>
+      <c r="B121" s="24"/>
+      <c r="D121" s="24"/>
       <c r="E121"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="37"/>
-      <c r="D122" s="37"/>
+      <c r="B122" s="24"/>
+      <c r="D122" s="24"/>
       <c r="E122"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="37"/>
-      <c r="D123" s="37"/>
+      <c r="B123" s="24"/>
+      <c r="D123" s="24"/>
       <c r="E123"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="37"/>
-      <c r="D124" s="37"/>
+      <c r="B124" s="24"/>
+      <c r="D124" s="24"/>
       <c r="E124"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="37"/>
-      <c r="D125" s="37"/>
+      <c r="B125" s="24"/>
+      <c r="D125" s="24"/>
       <c r="E125"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="37"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="24"/>
+      <c r="D126" s="24"/>
       <c r="E126"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="37"/>
-      <c r="D127" s="37"/>
+      <c r="B127" s="24"/>
+      <c r="D127" s="24"/>
       <c r="E127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="37"/>
-      <c r="D128" s="37"/>
+      <c r="B128" s="24"/>
+      <c r="D128" s="24"/>
       <c r="E128"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="37"/>
-      <c r="D129" s="37"/>
+      <c r="B129" s="24"/>
+      <c r="D129" s="24"/>
       <c r="E129"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="37"/>
+      <c r="B130" s="24"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="37"/>
+      <c r="B131" s="24"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="37"/>
-      <c r="D132" s="37"/>
+      <c r="B132" s="24"/>
+      <c r="D132" s="24"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="37"/>
+      <c r="B133" s="24"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="37"/>
+      <c r="B134" s="24"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="37"/>
+      <c r="B135" s="24"/>
     </row>
     <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C136" s="225"/>
+      <c r="C136" s="188"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -190,6 +190,48 @@
   <si>
     <t>BOLA RES-ROASBEEF-BOLSA</t>
   </si>
+  <si>
+    <t>NOMINA # 2</t>
+  </si>
+  <si>
+    <t>ARABE</t>
+  </si>
+  <si>
+    <t>PAPA-BOLA RES-SALCHICHA-ARRACHERACHAMBARETE</t>
+  </si>
+  <si>
+    <t>CHORIZO--ARABE</t>
+  </si>
+  <si>
+    <t>JAMON-RETAZO-BOLA RES</t>
+  </si>
+  <si>
+    <t>CREDITO MES ANTERIOR</t>
+  </si>
+  <si>
+    <t>SALSAS--CHAMBARETE</t>
+  </si>
+  <si>
+    <t>LONGANIZA ECO</t>
+  </si>
+  <si>
+    <t>NOMINA # 3</t>
+  </si>
+  <si>
+    <t>QUESO--ENCHILADA-BOLSA-SALCHICHA-BOLA RES</t>
+  </si>
+  <si>
+    <t>BOLA RES--SALCHICHA-PAPA-CHAMBARETE-RETAZO-ROASBEEF</t>
+  </si>
+  <si>
+    <t>LONGANIZA--ARABE</t>
+  </si>
+  <si>
+    <t>NOMIINA # 4</t>
+  </si>
+  <si>
+    <t>JAMON-QUESO-PAN</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +245,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,8 +600,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +653,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1308,7 +1365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1390,7 +1447,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1673,12 +1729,96 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1704,95 +1844,17 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="45" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="45" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1800,6 +1862,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2505,14 +2572,14 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="117" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
@@ -2525,26 +2592,27 @@
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="218"/>
-      <c r="C1" s="220" t="s">
+      <c r="B1" s="193"/>
+      <c r="C1" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="219"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2554,20 +2622,23 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="223"/>
+      <c r="B3" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="198"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="224" t="s">
+      <c r="H3" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="224"/>
+      <c r="I3" s="199"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
+      <c r="R3" s="231" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -2580,14 +2651,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="H4" s="227" t="s">
+      <c r="F4" s="201"/>
+      <c r="H4" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="228"/>
+      <c r="I4" s="203"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -2597,10 +2668,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="206" t="s">
+      <c r="P4" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="207"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="232"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -2629,7 +2701,7 @@
       <c r="J5" s="7">
         <v>44564</v>
       </c>
-      <c r="K5" s="229" t="s">
+      <c r="K5" s="191" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="9">
@@ -2651,7 +2723,7 @@
         <f>P5-F5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="35"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
@@ -2690,11 +2762,12 @@
         <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
         <v>56950</v>
       </c>
-      <c r="Q6" s="230">
-        <f t="shared" ref="Q6:Q39" si="1">P6-F6</f>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="229">
         <v>6490</v>
       </c>
-      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
@@ -2735,11 +2808,12 @@
         <f t="shared" si="0"/>
         <v>44225</v>
       </c>
-      <c r="Q7" s="231">
-        <f t="shared" si="1"/>
-        <v>2952</v>
-      </c>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="9">
+        <v>36</v>
+      </c>
+      <c r="R7" s="192">
+        <v>2916</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
@@ -2780,11 +2854,11 @@
         <f t="shared" si="0"/>
         <v>55065</v>
       </c>
-      <c r="Q8" s="83">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="9">
+        <f t="shared" ref="Q6:Q39" si="1">P8-F8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="35"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
@@ -2825,11 +2899,11 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>79745</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="43">
         <f>P9-F9</f>
         <v>-1</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
@@ -2837,37 +2911,50 @@
         <v>44569</v>
       </c>
       <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="28">
         <v>44569</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29">
+        <v>63188</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="37">
         <v>44569</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="I10" s="31">
+        <v>15</v>
+      </c>
+      <c r="J10" s="38">
+        <v>44569</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="48">
+        <v>6400</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>20000+29870</f>
+        <v>49870</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>6874</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="35"/>
+        <v>63186</v>
+      </c>
+      <c r="Q10" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
@@ -2875,37 +2962,44 @@
         <v>44570</v>
       </c>
       <c r="C11" s="26">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36"/>
+        <v>9763</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="28">
         <v>44570</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>90713</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="37">
         <v>44570</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
       <c r="J11" s="44"/>
       <c r="K11" s="49"/>
       <c r="L11" s="40"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <f>63000+17900</f>
+        <v>80900</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="34">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>90713</v>
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
@@ -2919,31 +3013,36 @@
       <c r="E12" s="28">
         <v>44571</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <v>43731</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="37">
         <v>44571</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>56</v>
+      </c>
       <c r="J12" s="38"/>
       <c r="K12" s="50"/>
       <c r="L12" s="40"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>34795+8300</f>
+        <v>43095</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="2"/>
+        <v>43731</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
@@ -2951,23 +3050,30 @@
         <v>44572</v>
       </c>
       <c r="C13" s="26">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41"/>
+        <v>828</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="28">
         <v>44572</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <v>34119</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="37">
         <v>44572</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>115</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>18176+15000</f>
+        <v>33176</v>
       </c>
       <c r="N13" s="33">
         <v>0</v>
@@ -2975,13 +3081,13 @@
       <c r="O13" s="2"/>
       <c r="P13" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34119</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="51"/>
+      <c r="R13" s="228"/>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
@@ -2989,37 +3095,43 @@
         <v>44573</v>
       </c>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="52"/>
+        <v>6439</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="28">
         <v>44573</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29">
+        <v>46352</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="37">
         <v>44573</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>21</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="K14" s="45"/>
       <c r="L14" s="40"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <v>38040</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>1851</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="51"/>
+        <v>46351</v>
+      </c>
+      <c r="Q14" s="61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R14" s="228"/>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
@@ -3027,36 +3139,43 @@
         <v>44574</v>
       </c>
       <c r="C15" s="26">
-        <v>0</v>
-      </c>
-      <c r="D15" s="52"/>
+        <v>2170</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="28">
         <v>44574</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29">
+        <v>42374</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="37">
         <v>44574</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>57</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="45"/>
       <c r="L15" s="40"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <f>34920+5000</f>
+        <v>39920</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="P15" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="2"/>
+        <v>42372</v>
+      </c>
+      <c r="Q15" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
@@ -3064,36 +3183,43 @@
         <v>44575</v>
       </c>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36"/>
+        <v>1224</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="28">
         <v>44575</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <v>87386</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="37">
         <v>44575</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>36</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>46030+40000</f>
+        <v>86030</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="2"/>
+        <v>87390</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
@@ -3107,30 +3233,41 @@
       <c r="E17" s="28">
         <v>44576</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <v>56164</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="37">
         <v>44576</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="31">
+        <v>59</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44576</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="48">
+        <v>5757.14</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>10000+5000+25250+763</f>
+        <v>41013</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>9335</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56164.14</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="2"/>
+        <v>0.13999999999941792</v>
+      </c>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
@@ -3138,36 +3275,43 @@
         <v>44577</v>
       </c>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="36"/>
+        <v>2717</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="28">
         <v>44577</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <v>77890</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="37">
         <v>44577</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>57</v>
+      </c>
       <c r="J18" s="38"/>
-      <c r="K18" s="54"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="40"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>55000+19596</f>
+        <v>74596</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77890</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
@@ -3181,30 +3325,35 @@
       <c r="E19" s="28">
         <v>44578</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>37491</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="37">
         <v>44578</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>36</v>
+      </c>
       <c r="J19" s="38"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>30302+6400</f>
+        <v>36702</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="P19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="2"/>
+        <v>37491</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
@@ -3218,30 +3367,35 @@
       <c r="E20" s="28">
         <v>44579</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <v>39151</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="37">
         <v>44579</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>51</v>
+      </c>
       <c r="J20" s="38"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="48"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>33450+5000</f>
+        <v>38450</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="2"/>
+        <v>39150</v>
+      </c>
+      <c r="Q20" s="43">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
@@ -3249,36 +3403,43 @@
         <v>44580</v>
       </c>
       <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="E21" s="28">
         <v>44580</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>39601</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="37">
         <v>44580</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>30</v>
+      </c>
       <c r="J21" s="38"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>10000+28900</f>
+        <v>38900</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="P21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="2"/>
+        <v>39599</v>
+      </c>
+      <c r="Q21" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
@@ -3292,30 +3453,35 @@
       <c r="E22" s="28">
         <v>44581</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <v>38741</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="37">
         <v>44581</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>0</v>
+      </c>
       <c r="J22" s="38"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="59"/>
+      <c r="L22" s="58"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>10000+28750</f>
+        <v>38750</v>
       </c>
       <c r="N22" s="33">
         <v>0</v>
       </c>
       <c r="P22" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38750</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
@@ -3323,36 +3489,43 @@
         <v>44582</v>
       </c>
       <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36"/>
+        <v>13341</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="28">
         <v>44582</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>86099</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="37">
         <v>44582</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="31">
+        <v>39</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="48"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>30000+42720</f>
+        <v>72720</v>
       </c>
       <c r="N23" s="33">
         <v>0</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="2"/>
+        <v>86100</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
@@ -3360,36 +3533,49 @@
         <v>44583</v>
       </c>
       <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="190"/>
+        <v>2740</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" s="28">
         <v>44583</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <v>69549</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="37">
         <v>44583</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="I24" s="31">
+        <v>100</v>
+      </c>
+      <c r="J24" s="189">
+        <v>44583</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="63">
+        <v>8417</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>39390+10000</f>
+        <v>49390</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="P24" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="2"/>
+        <v>69547</v>
+      </c>
+      <c r="Q24" s="61">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
@@ -3397,39 +3583,46 @@
         <v>44584</v>
       </c>
       <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>1083</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" s="28">
         <v>44584</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <v>85933</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="37">
         <v>44584</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
+      <c r="I25" s="31">
+        <v>229</v>
+      </c>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <f>50000+20000+13948</f>
+        <v>83948</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85933</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="8"/>
       <c r="S25" t="s">
         <v>8</v>
       </c>
@@ -3446,30 +3639,35 @@
       <c r="E26" s="28">
         <v>44585</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>42010</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="37">
         <v>44585</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>78</v>
+      </c>
       <c r="J26" s="38"/>
-      <c r="K26" s="63"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>25375+16400</f>
+        <v>41775</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="P26" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42010</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="35"/>
+      <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24"/>
@@ -3489,9 +3687,9 @@
         <v>44586</v>
       </c>
       <c r="I27" s="31"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="66"/>
       <c r="M27" s="32">
         <v>0</v>
       </c>
@@ -3506,7 +3704,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
@@ -3526,9 +3724,9 @@
         <v>44587</v>
       </c>
       <c r="I28" s="31"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="67"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="66"/>
       <c r="M28" s="32">
         <v>0</v>
       </c>
@@ -3543,7 +3741,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
@@ -3553,7 +3751,7 @@
       <c r="C29" s="26">
         <v>0</v>
       </c>
-      <c r="D29" s="72"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="28">
         <v>44588</v>
       </c>
@@ -3563,9 +3761,9 @@
         <v>44588</v>
       </c>
       <c r="I29" s="31"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="66"/>
       <c r="M29" s="32">
         <v>0</v>
       </c>
@@ -3580,7 +3778,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
@@ -3590,7 +3788,7 @@
       <c r="C30" s="26">
         <v>0</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="28">
         <v>44589</v>
       </c>
@@ -3600,9 +3798,9 @@
         <v>44589</v>
       </c>
       <c r="I30" s="31"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="32">
         <v>0</v>
       </c>
@@ -3617,7 +3815,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
@@ -3627,7 +3825,7 @@
       <c r="C31" s="26">
         <v>0</v>
       </c>
-      <c r="D31" s="85"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="28">
         <v>44590</v>
       </c>
@@ -3637,9 +3835,9 @@
         <v>44590</v>
       </c>
       <c r="I31" s="31"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="32">
         <v>0</v>
       </c>
@@ -3654,7 +3852,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
@@ -3664,7 +3862,7 @@
       <c r="C32" s="26">
         <v>0</v>
       </c>
-      <c r="D32" s="79"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="28">
         <v>44591</v>
       </c>
@@ -3674,9 +3872,9 @@
         <v>44591</v>
       </c>
       <c r="I32" s="31"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
       <c r="M32" s="32">
         <v>0</v>
       </c>
@@ -3691,7 +3889,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
@@ -3701,7 +3899,7 @@
       <c r="C33" s="26">
         <v>0</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="28">
         <v>44592</v>
       </c>
@@ -3711,9 +3909,9 @@
         <v>44592</v>
       </c>
       <c r="I33" s="31"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="81"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="80"/>
       <c r="M33" s="32">
         <v>0</v>
       </c>
@@ -3728,7 +3926,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R33" s="2"/>
+      <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
@@ -3738,7 +3936,7 @@
       <c r="C34" s="26">
         <v>0</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="28">
         <v>44593</v>
       </c>
@@ -3748,9 +3946,9 @@
         <v>44593</v>
       </c>
       <c r="I34" s="31"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="83"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -3765,7 +3963,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="8"/>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
@@ -3775,7 +3973,7 @@
       <c r="C35" s="26">
         <v>0</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="28">
         <v>44594</v>
       </c>
@@ -3785,9 +3983,9 @@
         <v>44594</v>
       </c>
       <c r="I35" s="31"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="81"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="80"/>
       <c r="M35" s="32">
         <v>0</v>
       </c>
@@ -3802,7 +4000,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
@@ -3812,7 +4010,7 @@
       <c r="C36" s="26">
         <v>0</v>
       </c>
-      <c r="D36" s="85"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="28">
         <v>44595</v>
       </c>
@@ -3822,9 +4020,9 @@
         <v>44595</v>
       </c>
       <c r="I36" s="31"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="83"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="82"/>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -3839,7 +4037,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
@@ -3849,7 +4047,7 @@
       <c r="C37" s="26">
         <v>0</v>
       </c>
-      <c r="D37" s="79"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="28">
         <v>44596</v>
       </c>
@@ -3859,9 +4057,9 @@
         <v>44596</v>
       </c>
       <c r="I37" s="31"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="83"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="82"/>
       <c r="M37" s="32">
         <v>0</v>
       </c>
@@ -3885,7 +4083,7 @@
       <c r="C38" s="26">
         <v>0</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="28">
         <v>44597</v>
       </c>
@@ -3895,9 +4093,9 @@
         <v>44597</v>
       </c>
       <c r="I38" s="31"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="81"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="80"/>
       <c r="M38" s="32">
         <v>0</v>
       </c>
@@ -3921,19 +4119,19 @@
       <c r="C39" s="26">
         <v>0</v>
       </c>
-      <c r="D39" s="80"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="28">
         <v>44598</v>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="2"/>
       <c r="H39" s="37">
         <v>44598</v>
       </c>
       <c r="I39" s="31"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="76"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="75"/>
       <c r="M39" s="32">
         <v>0</v>
       </c>
@@ -3952,248 +4150,248 @@
     <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="84"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="88"/>
+      <c r="F40" s="87"/>
       <c r="G40" s="2"/>
       <c r="H40" s="37"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="208">
+      <c r="I40" s="88"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="210">
         <f>SUM(M5:M39)</f>
-        <v>277357</v>
-      </c>
-      <c r="N40" s="210">
+        <v>1164632</v>
+      </c>
+      <c r="N40" s="212">
         <f>SUM(N5:N39)</f>
-        <v>3931</v>
+        <v>35245</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>304035</v>
+        <v>1284531.1400000001</v>
       </c>
       <c r="Q40" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>9442</v>
+        <v>40.139999999999418</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="84"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="88"/>
+      <c r="F41" s="87"/>
       <c r="G41" s="2"/>
       <c r="H41" s="37"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="209"/>
-      <c r="N41" s="211"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="211"/>
+      <c r="N41" s="213"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="94"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="98"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="94"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="98"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="97"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="94"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="93"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="98"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="97"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="94"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="98"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
       <c r="B46" s="25"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="94"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="98"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="94"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="98"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="94"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="93"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="98"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="97"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="94"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="98"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
-      <c r="B50" s="99"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="26">
         <v>0</v>
       </c>
-      <c r="D50" s="100"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="91"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="104"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="90"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="105"/>
+      <c r="M50" s="104"/>
       <c r="N50" s="33"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="107">
+      <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>12621</v>
-      </c>
-      <c r="D51" s="108"/>
-      <c r="E51" s="109" t="s">
+        <v>52975</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="110">
+      <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>294593</v>
-      </c>
-      <c r="G51" s="108"/>
-      <c r="H51" s="111" t="s">
+        <v>1275085</v>
+      </c>
+      <c r="G51" s="107"/>
+      <c r="H51" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="112">
+      <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>126</v>
-      </c>
-      <c r="J51" s="113"/>
-      <c r="K51" s="114" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="115">
+      <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>10000</v>
-      </c>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
+        <v>30574.14</v>
+      </c>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -4205,272 +4403,267 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="118"/>
-      <c r="B53" s="119"/>
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="212" t="s">
+      <c r="H53" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="213"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="214">
+      <c r="I53" s="215"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="216">
         <f>I51+L51</f>
-        <v>10126</v>
-      </c>
-      <c r="L53" s="215"/>
-      <c r="M53" s="216">
+        <v>31679.14</v>
+      </c>
+      <c r="L53" s="217"/>
+      <c r="M53" s="218">
         <f>N40+M40</f>
-        <v>281288</v>
-      </c>
-      <c r="N53" s="217"/>
+        <v>1199877</v>
+      </c>
+      <c r="N53" s="219"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="193" t="s">
+      <c r="D54" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="193"/>
-      <c r="F54" s="121">
+      <c r="E54" s="220"/>
+      <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>271846</v>
-      </c>
-      <c r="I54" s="122"/>
-      <c r="J54" s="123"/>
+        <v>1190430.8600000001</v>
+      </c>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="194" t="s">
+      <c r="D55" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="194"/>
-      <c r="F55" s="116">
-        <v>0</v>
-      </c>
-      <c r="I55" s="195" t="s">
+      <c r="E55" s="221"/>
+      <c r="F55" s="115">
+        <v>0</v>
+      </c>
+      <c r="I55" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="196"/>
-      <c r="K55" s="197">
+      <c r="J55" s="223"/>
+      <c r="K55" s="224">
         <f>F57+F58+F59</f>
-        <v>271846</v>
-      </c>
-      <c r="L55" s="198"/>
+        <v>1190430.8600000001</v>
+      </c>
+      <c r="L55" s="225"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="124"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="125">
-        <v>0</v>
-      </c>
-      <c r="I56" s="126"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="129"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="124">
+        <v>0</v>
+      </c>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="128"/>
     </row>
     <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="118" t="s">
+      <c r="E57" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="116">
+      <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>271846</v>
+        <v>1190430.8600000001</v>
       </c>
       <c r="H57" s="24"/>
-      <c r="I57" s="130" t="s">
+      <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="131"/>
-      <c r="K57" s="199">
+      <c r="J57" s="130"/>
+      <c r="K57" s="226">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="200"/>
+      <c r="L57" s="227"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="132" t="s">
+      <c r="D58" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="118" t="s">
+      <c r="E58" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="133">
+      <c r="F58" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="134"/>
-      <c r="D59" s="201" t="s">
+      <c r="C59" s="133"/>
+      <c r="D59" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="202"/>
-      <c r="F59" s="135">
-        <v>0</v>
-      </c>
-      <c r="I59" s="203" t="s">
+      <c r="E59" s="205"/>
+      <c r="F59" s="134">
+        <v>0</v>
+      </c>
+      <c r="I59" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="204"/>
-      <c r="K59" s="205">
+      <c r="J59" s="207"/>
+      <c r="K59" s="208">
         <f>K55+K57</f>
-        <v>50786.299999999988</v>
-      </c>
-      <c r="L59" s="205"/>
+        <v>969371.16000000015</v>
+      </c>
+      <c r="L59" s="208"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="139"/>
-      <c r="J60" s="140"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="138"/>
+      <c r="J60" s="139"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="141"/>
-      <c r="J61" s="141"/>
-      <c r="K61" s="142"/>
-      <c r="L61" s="142"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="141"/>
     </row>
     <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
       <c r="E62" s="34"/>
-      <c r="I62" s="141"/>
-      <c r="J62" s="141"/>
-      <c r="K62" s="142"/>
-      <c r="L62" s="142"/>
-      <c r="M62" s="146"/>
-      <c r="N62" s="118"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="117"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="143"/>
-      <c r="C63" s="147"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="146"/>
       <c r="E63" s="34"/>
-      <c r="M63" s="146"/>
-      <c r="N63" s="118"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="117"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="143"/>
-      <c r="C64" s="147"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="146"/>
       <c r="E64" s="34"/>
-      <c r="F64" s="148"/>
-      <c r="L64" s="149"/>
+      <c r="F64" s="147"/>
+      <c r="L64" s="148"/>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="143"/>
-      <c r="C65" s="147"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="146"/>
       <c r="E65" s="34"/>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="143"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="150"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="149"/>
       <c r="E66" s="34"/>
-      <c r="F66" s="151"/>
+      <c r="F66" s="150"/>
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="150"/>
-      <c r="E67" s="152"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="151"/>
       <c r="F67" s="34"/>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="150"/>
-      <c r="E68" s="152"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="151"/>
       <c r="F68" s="34"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="150"/>
-      <c r="E69" s="152"/>
+      <c r="D69" s="149"/>
+      <c r="E69" s="151"/>
       <c r="F69" s="34"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="150"/>
-      <c r="E70" s="152"/>
+      <c r="D70" s="149"/>
+      <c r="E70" s="151"/>
       <c r="F70" s="34"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="150"/>
-      <c r="E71" s="152"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="151"/>
       <c r="F71" s="34"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="150"/>
-      <c r="E72" s="152"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="151"/>
       <c r="F72" s="34"/>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="150"/>
-      <c r="E73" s="152"/>
+      <c r="D73" s="149"/>
+      <c r="E73" s="151"/>
       <c r="F73" s="34"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="150"/>
-      <c r="E74" s="152"/>
+      <c r="D74" s="149"/>
+      <c r="E74" s="151"/>
       <c r="F74" s="34"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="150"/>
-      <c r="E75" s="152"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="151"/>
       <c r="F75" s="34"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="150"/>
-      <c r="E76" s="152"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="151"/>
       <c r="F76" s="34"/>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="150"/>
-      <c r="E77" s="152"/>
+      <c r="D77" s="149"/>
+      <c r="E77" s="151"/>
       <c r="F77" s="34"/>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="150"/>
-      <c r="E78" s="152"/>
+      <c r="D78" s="149"/>
+      <c r="E78" s="151"/>
       <c r="F78" s="34"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="150"/>
-      <c r="E79" s="150"/>
-      <c r="F79" s="151"/>
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="150"/>
-      <c r="E80" s="150"/>
-      <c r="F80" s="151"/>
+      <c r="D80" s="149"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="150"/>
-      <c r="E81" s="150"/>
-      <c r="F81" s="151"/>
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+  <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -4485,6 +4678,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4506,7 +4705,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="117" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -4515,1138 +4714,1138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="156" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="159" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="189">
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="188">
         <f>C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="166">
+      <c r="A4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="165">
         <f>C4-E4+F3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="166">
+      <c r="A5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="165">
         <f>C5-E5+F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="167">
+      <c r="A6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="166">
         <f>F5+C6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="168"/>
+      <c r="G6" s="167"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="167">
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="166">
         <f t="shared" ref="F7" si="0">F6+C7-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="164"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="167">
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="166">
         <f>F7+C8-E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="164"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="167">
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="166">
         <f>F8+C9-E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="164"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="167">
+      <c r="A10" s="163"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="166">
         <f>F9+C10-E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="164"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="167">
+      <c r="A11" s="163"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="166">
         <f t="shared" ref="F11:F74" si="1">F10+C11-E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="167">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="168"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="166">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="167"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="167">
+      <c r="A13" s="163"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="164"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="167">
+      <c r="A14" s="163"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="164"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="169">
+      <c r="A15" s="163"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="168">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="167">
+      <c r="A16" s="163"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="164"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="167">
+      <c r="A17" s="163"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="167">
+      <c r="A18" s="163"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="167">
+      <c r="A19" s="163"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="167">
+      <c r="A20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="167">
+      <c r="A21" s="163"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="167">
+      <c r="A22" s="163"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="167">
+      <c r="A23" s="163"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="167">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="168"/>
+      <c r="A24" s="163"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="166">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="167"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="167">
+      <c r="A25" s="163"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="164"/>
-      <c r="B26" s="165"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="167">
+      <c r="A26" s="163"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="167">
+      <c r="A27" s="163"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="164"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="167">
+      <c r="A28" s="163"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="164"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="167">
+      <c r="A29" s="163"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="164"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="167">
+      <c r="A30" s="163"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="167">
+      <c r="A31" s="163"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="164"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="167">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="168"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="166">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="167"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="167">
+      <c r="A33" s="163"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="164"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="167">
+      <c r="A34" s="163"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="164"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="167">
+      <c r="A35" s="163"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="164"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="167">
+      <c r="A36" s="163"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="164"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="167">
+      <c r="A37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="164"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="167">
+      <c r="A38" s="163"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="164"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="167">
+      <c r="A39" s="163"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="164"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="164"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="167">
+      <c r="A40" s="163"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="164"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="167">
+      <c r="A41" s="163"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="164"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="167">
+      <c r="A42" s="163"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="164"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="167">
+      <c r="A43" s="163"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="164"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="167">
+      <c r="A44" s="163"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="164"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="167">
+      <c r="A45" s="163"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="167">
+      <c r="A46" s="163"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="167">
+      <c r="A47" s="163"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="164"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="167">
+      <c r="A48" s="163"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="167">
+      <c r="A49" s="163"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="163"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="167">
+      <c r="A50" s="163"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="164"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="167">
+      <c r="A51" s="163"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="167">
+      <c r="A52" s="163"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="164"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="167">
+      <c r="A53" s="163"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="164"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="167">
+      <c r="A54" s="163"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="164"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="167">
+      <c r="A55" s="163"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="170"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="167">
+      <c r="A56" s="169"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="170"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="167">
+      <c r="A57" s="169"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="170"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="167">
+      <c r="A58" s="169"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="164"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="167">
+      <c r="A59" s="163"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="164"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="167">
+      <c r="A60" s="163"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="164"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="167">
+      <c r="A61" s="163"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="170"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="167">
+      <c r="A62" s="169"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="170"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="167">
+      <c r="A63" s="169"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="163"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="170"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="167">
+      <c r="A64" s="169"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="171"/>
-      <c r="B65" s="172"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="167">
+      <c r="A65" s="170"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="163"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="171"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="173"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="167">
+      <c r="A66" s="170"/>
+      <c r="B66" s="171"/>
+      <c r="C66" s="172"/>
+      <c r="D66" s="163"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="171"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="173"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="167">
+      <c r="A67" s="170"/>
+      <c r="B67" s="171"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="171"/>
-      <c r="B68" s="172"/>
-      <c r="C68" s="173"/>
-      <c r="D68" s="164"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="167">
+      <c r="A68" s="170"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="163"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="171"/>
-      <c r="B69" s="172"/>
-      <c r="C69" s="173"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="167">
+      <c r="A69" s="170"/>
+      <c r="B69" s="171"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="171"/>
-      <c r="B70" s="172"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="164"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="167">
+      <c r="A70" s="170"/>
+      <c r="B70" s="171"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="171"/>
-      <c r="B71" s="172"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="164"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="167">
+      <c r="A71" s="170"/>
+      <c r="B71" s="171"/>
+      <c r="C71" s="172"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="171"/>
-      <c r="B72" s="172"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="164"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="167">
+      <c r="A72" s="170"/>
+      <c r="B72" s="171"/>
+      <c r="C72" s="172"/>
+      <c r="D72" s="163"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="171"/>
-      <c r="B73" s="172"/>
-      <c r="C73" s="173"/>
-      <c r="D73" s="164"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="167">
+      <c r="A73" s="170"/>
+      <c r="B73" s="171"/>
+      <c r="C73" s="172"/>
+      <c r="D73" s="163"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="171"/>
-      <c r="B74" s="172"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="164"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="167">
+      <c r="A74" s="170"/>
+      <c r="B74" s="171"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="171"/>
-      <c r="B75" s="172"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="164"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="167">
+      <c r="A75" s="170"/>
+      <c r="B75" s="171"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="166">
         <f t="shared" ref="F75:F99" si="2">F74+C75-E75</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="171"/>
-      <c r="B76" s="172"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="164"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="167">
+      <c r="A76" s="170"/>
+      <c r="B76" s="171"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="171"/>
-      <c r="B77" s="172"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="167">
+      <c r="A77" s="170"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="163"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="171"/>
-      <c r="B78" s="172"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="164"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="167">
+      <c r="A78" s="170"/>
+      <c r="B78" s="171"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="171"/>
-      <c r="B79" s="172"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="164"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="167">
+      <c r="A79" s="170"/>
+      <c r="B79" s="171"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="163"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="171"/>
-      <c r="B80" s="172"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="164"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="167">
+      <c r="A80" s="170"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="163"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="171"/>
-      <c r="B81" s="172"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="164"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="167">
+      <c r="A81" s="170"/>
+      <c r="B81" s="171"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="171"/>
-      <c r="B82" s="172"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="164"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="167">
+      <c r="A82" s="170"/>
+      <c r="B82" s="171"/>
+      <c r="C82" s="172"/>
+      <c r="D82" s="163"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="174"/>
-      <c r="B83" s="175"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="177"/>
+      <c r="A83" s="173"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="175"/>
+      <c r="D83" s="176"/>
       <c r="E83" s="34"/>
-      <c r="F83" s="167">
+      <c r="F83" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="174"/>
-      <c r="B84" s="175"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="177"/>
+      <c r="A84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="176"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="167">
+      <c r="F84" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="174"/>
-      <c r="B85" s="175"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="177"/>
+      <c r="A85" s="173"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="176"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="167">
+      <c r="F85" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="174"/>
-      <c r="B86" s="175"/>
-      <c r="C86" s="176"/>
-      <c r="D86" s="177"/>
+      <c r="A86" s="173"/>
+      <c r="B86" s="174"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="176"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="167">
+      <c r="F86" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="174"/>
-      <c r="B87" s="175"/>
-      <c r="C87" s="176"/>
-      <c r="D87" s="177"/>
+      <c r="A87" s="173"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="176"/>
       <c r="E87" s="34"/>
-      <c r="F87" s="167">
+      <c r="F87" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="174"/>
-      <c r="B88" s="175"/>
-      <c r="C88" s="176"/>
-      <c r="D88" s="177"/>
+      <c r="A88" s="173"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="176"/>
       <c r="E88" s="34"/>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="171"/>
-      <c r="B89" s="172"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="178"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="167">
+      <c r="A89" s="170"/>
+      <c r="B89" s="171"/>
+      <c r="C89" s="172"/>
+      <c r="D89" s="177"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="171"/>
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="178"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="167">
+      <c r="A90" s="170"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="177"/>
+      <c r="E90" s="86"/>
+      <c r="F90" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="171"/>
-      <c r="B91" s="172"/>
-      <c r="C91" s="173"/>
-      <c r="D91" s="178"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="167">
+      <c r="A91" s="170"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="177"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="171"/>
-      <c r="B92" s="172"/>
-      <c r="C92" s="173"/>
-      <c r="D92" s="178"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="167">
+      <c r="A92" s="170"/>
+      <c r="B92" s="171"/>
+      <c r="C92" s="172"/>
+      <c r="D92" s="177"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="171"/>
-      <c r="B93" s="172"/>
-      <c r="C93" s="173"/>
-      <c r="D93" s="178"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="167">
+      <c r="A93" s="170"/>
+      <c r="B93" s="171"/>
+      <c r="C93" s="172"/>
+      <c r="D93" s="177"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="171"/>
-      <c r="B94" s="172"/>
-      <c r="C94" s="173"/>
-      <c r="D94" s="178"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="167">
+      <c r="A94" s="170"/>
+      <c r="B94" s="171"/>
+      <c r="C94" s="172"/>
+      <c r="D94" s="177"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="171"/>
-      <c r="B95" s="172"/>
-      <c r="C95" s="173"/>
-      <c r="D95" s="178"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="167">
+      <c r="A95" s="170"/>
+      <c r="B95" s="171"/>
+      <c r="C95" s="172"/>
+      <c r="D95" s="177"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="171"/>
-      <c r="B96" s="172"/>
-      <c r="C96" s="173"/>
-      <c r="D96" s="178"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="167">
+      <c r="A96" s="170"/>
+      <c r="B96" s="171"/>
+      <c r="C96" s="172"/>
+      <c r="D96" s="177"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="171"/>
-      <c r="B97" s="172"/>
-      <c r="C97" s="173"/>
-      <c r="D97" s="178"/>
-      <c r="E97" s="87"/>
-      <c r="F97" s="167">
+      <c r="A97" s="170"/>
+      <c r="B97" s="171"/>
+      <c r="C97" s="172"/>
+      <c r="D97" s="177"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="171"/>
-      <c r="B98" s="172"/>
-      <c r="C98" s="173"/>
-      <c r="D98" s="178"/>
-      <c r="E98" s="87"/>
-      <c r="F98" s="167">
+      <c r="A98" s="170"/>
+      <c r="B98" s="171"/>
+      <c r="C98" s="172"/>
+      <c r="D98" s="177"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="179"/>
-      <c r="B99" s="180"/>
+      <c r="A99" s="178"/>
+      <c r="B99" s="179"/>
       <c r="C99" s="34">
         <v>0</v>
       </c>
-      <c r="D99" s="181"/>
+      <c r="D99" s="180"/>
       <c r="E99" s="34"/>
-      <c r="F99" s="167">
+      <c r="F99" s="166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="182"/>
-      <c r="B100" s="183"/>
-      <c r="C100" s="184">
+      <c r="A100" s="181"/>
+      <c r="B100" s="182"/>
+      <c r="C100" s="183">
         <f>SUM(C5:C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="185"/>
-      <c r="E100" s="186">
+      <c r="D100" s="184"/>
+      <c r="E100" s="185">
         <f>SUM(E5:E99)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="187">
+      <c r="F100" s="186">
         <f>F99</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="118"/>
+      <c r="B101" s="117"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="117"/>
+      <c r="D101" s="116"/>
       <c r="E101" s="3"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="118"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="117"/>
+      <c r="D102" s="116"/>
       <c r="E102" s="3"/>
       <c r="F102" s="1"/>
     </row>
@@ -5826,7 +6025,7 @@
       <c r="B135" s="24"/>
     </row>
     <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C136" s="188"/>
+      <c r="C136" s="187"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1739,6 +1739,89 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="45" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="45" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,89 +1854,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="45" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="45" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2572,8 +2572,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,23 +2596,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="193"/>
-      <c r="C1" s="195" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="194"/>
+      <c r="B2" s="223"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2622,21 +2622,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="198"/>
+      <c r="B3" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="227"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="199" t="s">
+      <c r="H3" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="199"/>
+      <c r="I3" s="228"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="231" t="s">
+      <c r="R3" s="195" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2651,14 +2651,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="H4" s="202" t="s">
+      <c r="F4" s="230"/>
+      <c r="H4" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="203"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -2668,11 +2668,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="209" t="s">
+      <c r="P4" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="232"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="196"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -2765,7 +2765,7 @@
       <c r="Q6" s="13">
         <v>0</v>
       </c>
-      <c r="R6" s="229">
+      <c r="R6" s="194">
         <v>6490</v>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
         <v>55065</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" ref="Q6:Q39" si="1">P8-F8</f>
+        <f t="shared" ref="Q8:Q39" si="1">P8-F8</f>
         <v>1</v>
       </c>
       <c r="R8" s="9"/>
@@ -3087,7 +3087,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="228"/>
+      <c r="R13" s="193"/>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
@@ -3131,7 +3131,7 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R14" s="228"/>
+      <c r="R14" s="193"/>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
@@ -3681,24 +3681,29 @@
       <c r="E27" s="28">
         <v>44586</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <v>38607</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="37">
         <v>44586</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>32</v>
+      </c>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <f>27075+10000</f>
+        <v>37075</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="P27" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38607</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="1"/>
@@ -3712,30 +3717,37 @@
         <v>44587</v>
       </c>
       <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="E28" s="28">
         <v>44587</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <v>37270</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="37">
         <v>44587</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>45</v>
+      </c>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>27210+10000</f>
+        <v>37210</v>
       </c>
       <c r="N28" s="33">
         <v>0</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37270</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="1"/>
@@ -3755,24 +3767,29 @@
       <c r="E29" s="28">
         <v>44588</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>48904</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="37">
         <v>44588</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>0</v>
+      </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>20000+28760</f>
+        <v>48760</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48904</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="1"/>
@@ -3893,21 +3910,13 @@
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="25">
-        <v>44592</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="28">
-        <v>44592</v>
-      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="29"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="37">
-        <v>44592</v>
-      </c>
+      <c r="H33" s="37"/>
       <c r="I33" s="31"/>
       <c r="J33" s="73"/>
       <c r="K33" s="76"/>
@@ -3930,21 +3939,13 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="25">
-        <v>44593</v>
-      </c>
-      <c r="C34" s="26">
-        <v>0</v>
-      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="78"/>
-      <c r="E34" s="28">
-        <v>44593</v>
-      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="29"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="37">
-        <v>44593</v>
-      </c>
+      <c r="H34" s="37"/>
       <c r="I34" s="31"/>
       <c r="J34" s="73"/>
       <c r="K34" s="81"/>
@@ -3967,21 +3968,13 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="25">
-        <v>44594</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0</v>
-      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="83"/>
-      <c r="E35" s="28">
-        <v>44594</v>
-      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="37">
-        <v>44594</v>
-      </c>
+      <c r="H35" s="37"/>
       <c r="I35" s="31"/>
       <c r="J35" s="73"/>
       <c r="K35" s="76"/>
@@ -4004,21 +3997,13 @@
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
-      <c r="B36" s="25">
-        <v>44595</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0</v>
-      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="84"/>
-      <c r="E36" s="28">
-        <v>44595</v>
-      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="29"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="37">
-        <v>44595</v>
-      </c>
+      <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
       <c r="K36" s="190"/>
@@ -4041,21 +4026,13 @@
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
-      <c r="B37" s="25">
-        <v>44596</v>
-      </c>
-      <c r="C37" s="26">
-        <v>0</v>
-      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="78"/>
-      <c r="E37" s="28">
-        <v>44596</v>
-      </c>
+      <c r="E37" s="28"/>
       <c r="F37" s="29"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="37">
-        <v>44596</v>
-      </c>
+      <c r="H37" s="37"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
       <c r="K37" s="81"/>
@@ -4077,21 +4054,13 @@
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
-      <c r="B38" s="25">
-        <v>44597</v>
-      </c>
-      <c r="C38" s="26">
-        <v>0</v>
-      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="28">
-        <v>44597</v>
-      </c>
+      <c r="E38" s="28"/>
       <c r="F38" s="29"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="37">
-        <v>44597</v>
-      </c>
+      <c r="H38" s="37"/>
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
       <c r="K38" s="76"/>
@@ -4113,21 +4082,13 @@
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24"/>
-      <c r="B39" s="25">
-        <v>44598</v>
-      </c>
-      <c r="C39" s="26">
-        <v>0</v>
-      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="28">
-        <v>44598</v>
-      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="85"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="37">
-        <v>44598</v>
-      </c>
+      <c r="H39" s="37"/>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="76"/>
@@ -4160,17 +4121,17 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="210">
+      <c r="M40" s="204">
         <f>SUM(M5:M39)</f>
-        <v>1164632</v>
-      </c>
-      <c r="N40" s="212">
+        <v>1287677</v>
+      </c>
+      <c r="N40" s="206">
         <f>SUM(N5:N39)</f>
-        <v>35245</v>
+        <v>36889</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1284531.1400000001</v>
+        <v>1409312.1400000001</v>
       </c>
       <c r="Q40" s="9">
         <f>SUM(Q5:Q38)</f>
@@ -4190,8 +4151,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="211"/>
-      <c r="N41" s="213"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="207"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -4364,7 +4325,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>52975</v>
+        <v>52990</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -4372,7 +4333,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1275085</v>
+        <v>1399866</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -4380,7 +4341,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>1105</v>
+        <v>1182</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -4406,32 +4367,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="214" t="s">
+      <c r="H53" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="215"/>
+      <c r="I53" s="209"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="216">
+      <c r="K53" s="210">
         <f>I51+L51</f>
-        <v>31679.14</v>
-      </c>
-      <c r="L53" s="217"/>
-      <c r="M53" s="218">
+        <v>31756.14</v>
+      </c>
+      <c r="L53" s="211"/>
+      <c r="M53" s="212">
         <f>N40+M40</f>
-        <v>1199877</v>
-      </c>
-      <c r="N53" s="219"/>
+        <v>1324566</v>
+      </c>
+      <c r="N53" s="213"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="220" t="s">
+      <c r="D54" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="220"/>
+      <c r="E54" s="214"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1190430.8600000001</v>
+        <v>1315119.8600000001</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -4439,22 +4400,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="221" t="s">
+      <c r="D55" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="221"/>
+      <c r="E55" s="215"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="222" t="s">
+      <c r="I55" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="223"/>
-      <c r="K55" s="224">
+      <c r="J55" s="217"/>
+      <c r="K55" s="218">
         <f>F57+F58+F59</f>
-        <v>1190430.8600000001</v>
-      </c>
-      <c r="L55" s="225"/>
+        <v>1315119.8600000001</v>
+      </c>
+      <c r="L55" s="219"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -4478,18 +4439,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1190430.8600000001</v>
+        <v>1315119.8600000001</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="226">
+      <c r="K57" s="220">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="227"/>
+      <c r="L57" s="221"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -4504,22 +4465,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="204" t="s">
+      <c r="D59" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="205"/>
+      <c r="E59" s="198"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="206" t="s">
+      <c r="I59" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="207"/>
-      <c r="K59" s="208">
+      <c r="J59" s="200"/>
+      <c r="K59" s="201">
         <f>K55+K57</f>
-        <v>969371.16000000015</v>
-      </c>
-      <c r="L59" s="208"/>
+        <v>1094060.1600000001</v>
+      </c>
+      <c r="L59" s="201"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -4663,6 +4624,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -4678,12 +4645,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE   HERRADURA  ENERO 2022.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -152,9 +152,6 @@
     <t>INVENTARIO FINAL</t>
   </si>
   <si>
-    <t>GANANCIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">HERRADURA </t>
   </si>
   <si>
@@ -231,6 +228,249 @@
   </si>
   <si>
     <t>JAMON-QUESO-PAN</t>
+  </si>
+  <si>
+    <t>LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA # 5 Y vacaciones</t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL</t>
+  </si>
+  <si>
+    <t>03/01/2022</t>
+  </si>
+  <si>
+    <t>C-7470</t>
+  </si>
+  <si>
+    <t>07/01/2022</t>
+  </si>
+  <si>
+    <t>C-7494</t>
+  </si>
+  <si>
+    <t>C-7523</t>
+  </si>
+  <si>
+    <t>04/01/2022</t>
+  </si>
+  <si>
+    <t>C-7593</t>
+  </si>
+  <si>
+    <t>C-7600</t>
+  </si>
+  <si>
+    <t>C-7621</t>
+  </si>
+  <si>
+    <t>05/01/2022</t>
+  </si>
+  <si>
+    <t>C-7767</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>C-7802</t>
+  </si>
+  <si>
+    <t>C-7841</t>
+  </si>
+  <si>
+    <t>C-7989</t>
+  </si>
+  <si>
+    <t>14/01/2022</t>
+  </si>
+  <si>
+    <t>C-7990</t>
+  </si>
+  <si>
+    <t>C-8004</t>
+  </si>
+  <si>
+    <t>C-8005</t>
+  </si>
+  <si>
+    <t>08/01/2022</t>
+  </si>
+  <si>
+    <t>C-8009</t>
+  </si>
+  <si>
+    <t>C-8106</t>
+  </si>
+  <si>
+    <t>C-8123</t>
+  </si>
+  <si>
+    <t>10/01/2022</t>
+  </si>
+  <si>
+    <t>C-8289</t>
+  </si>
+  <si>
+    <t>C-8296</t>
+  </si>
+  <si>
+    <t>C-8297</t>
+  </si>
+  <si>
+    <t>11/01/2022</t>
+  </si>
+  <si>
+    <t>C-8368</t>
+  </si>
+  <si>
+    <t>/  /</t>
+  </si>
+  <si>
+    <t>C-8369</t>
+  </si>
+  <si>
+    <t>C-8392</t>
+  </si>
+  <si>
+    <t>12/01/2022</t>
+  </si>
+  <si>
+    <t>C-8454</t>
+  </si>
+  <si>
+    <t>C-8665</t>
+  </si>
+  <si>
+    <t>C-8765</t>
+  </si>
+  <si>
+    <t>21/01/2022</t>
+  </si>
+  <si>
+    <t>15/01/2022</t>
+  </si>
+  <si>
+    <t>C-8826</t>
+  </si>
+  <si>
+    <t>C-8868</t>
+  </si>
+  <si>
+    <t>17/01/2022</t>
+  </si>
+  <si>
+    <t>C-9068</t>
+  </si>
+  <si>
+    <t>18/01/2022</t>
+  </si>
+  <si>
+    <t>C-9105</t>
+  </si>
+  <si>
+    <t>C-9166</t>
+  </si>
+  <si>
+    <t>C-9169</t>
+  </si>
+  <si>
+    <t>19/01/2022</t>
+  </si>
+  <si>
+    <t>C-9206</t>
+  </si>
+  <si>
+    <t>C-9219</t>
+  </si>
+  <si>
+    <t>20/01/2022</t>
+  </si>
+  <si>
+    <t>C-9378</t>
+  </si>
+  <si>
+    <t>C-9479</t>
+  </si>
+  <si>
+    <t>C-9552</t>
+  </si>
+  <si>
+    <t>28/01/2022</t>
+  </si>
+  <si>
+    <t>22/01/2022</t>
+  </si>
+  <si>
+    <t>C-9626</t>
+  </si>
+  <si>
+    <t>C-9669</t>
+  </si>
+  <si>
+    <t>24/01/2022</t>
+  </si>
+  <si>
+    <t>C-9769</t>
+  </si>
+  <si>
+    <t>C-9775</t>
+  </si>
+  <si>
+    <t>26/01/2022</t>
+  </si>
+  <si>
+    <t>C-9973</t>
+  </si>
+  <si>
+    <t>C-9975</t>
+  </si>
+  <si>
+    <t>27/01/2022</t>
+  </si>
+  <si>
+    <t>C-10140</t>
+  </si>
+  <si>
+    <t>C-10149</t>
+  </si>
+  <si>
+    <t>C-10150</t>
+  </si>
+  <si>
+    <t>C-10184</t>
+  </si>
+  <si>
+    <t>29/01/2022</t>
+  </si>
+  <si>
+    <t>C-10325</t>
+  </si>
+  <si>
+    <t>C-10326</t>
+  </si>
+  <si>
+    <t>C-10335</t>
+  </si>
+  <si>
+    <t>31/01/2022</t>
+  </si>
+  <si>
+    <t>C-10529</t>
+  </si>
+  <si>
+    <t>CANCELADA</t>
+  </si>
+  <si>
+    <t>PERDIDA</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
   </si>
 </sst>
 </file>
@@ -245,7 +485,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,13 +825,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <u/>
       <sz val="11"/>
@@ -610,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +892,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1360,12 +1611,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1649,8 +1924,6 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="53" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="39" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1666,12 +1939,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,21 +1948,19 @@
     <xf numFmtId="1" fontId="40" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="42" fillId="0" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="43" fillId="0" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="40" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="44" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="40" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,7 +1973,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="40" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1720,15 +1985,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1741,10 +2000,35 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="45" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="45" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="44" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1864,6 +2148,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF66CC"/>
+      <color rgb="FF99FF99"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -2572,8 +2859,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,23 +2883,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="222"/>
-      <c r="C1" s="224" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="223"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2622,22 +2909,22 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="227"/>
+      <c r="B3" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="238"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="228"/>
+      <c r="I3" s="239"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="195" t="s">
-        <v>39</v>
+      <c r="R3" s="206" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2651,14 +2938,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="241"/>
+      <c r="H4" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -2668,11 +2955,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="202" t="s">
+      <c r="P4" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="196"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="207"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -2701,8 +2988,8 @@
       <c r="J5" s="7">
         <v>44564</v>
       </c>
-      <c r="K5" s="191" t="s">
-        <v>30</v>
+      <c r="K5" s="183" t="s">
+        <v>29</v>
       </c>
       <c r="L5" s="9">
         <v>10000</v>
@@ -2765,7 +3052,7 @@
       <c r="Q6" s="13">
         <v>0</v>
       </c>
-      <c r="R6" s="194">
+      <c r="R6" s="186">
         <v>6490</v>
       </c>
     </row>
@@ -2778,7 +3065,7 @@
         <v>7168</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="28">
         <v>44566</v>
@@ -2811,7 +3098,7 @@
       <c r="Q7" s="9">
         <v>36</v>
       </c>
-      <c r="R7" s="192">
+      <c r="R7" s="184">
         <v>2916</v>
       </c>
     </row>
@@ -2824,7 +3111,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="28">
         <v>44567</v>
@@ -2869,7 +3156,7 @@
         <v>5363</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="28">
         <v>44568</v>
@@ -2914,7 +3201,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="28">
         <v>44569</v>
@@ -2933,7 +3220,7 @@
         <v>44569</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="48">
         <v>6400</v>
@@ -2965,7 +3252,7 @@
         <v>9763</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="28">
         <v>44570</v>
@@ -3053,7 +3340,7 @@
         <v>828</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="28">
         <v>44572</v>
@@ -3087,7 +3374,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="193"/>
+      <c r="R13" s="185"/>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
@@ -3098,7 +3385,7 @@
         <v>6439</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="28">
         <v>44573</v>
@@ -3131,7 +3418,7 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="R14" s="193"/>
+      <c r="R14" s="185"/>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
@@ -3142,7 +3429,7 @@
         <v>2170</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="28">
         <v>44574</v>
@@ -3186,7 +3473,7 @@
         <v>1224</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="28">
         <v>44575</v>
@@ -3247,7 +3534,7 @@
         <v>44576</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" s="48">
         <v>5757.14</v>
@@ -3278,7 +3565,7 @@
         <v>2717</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="28">
         <v>44577</v>
@@ -3406,7 +3693,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="28">
         <v>44580</v>
@@ -3492,7 +3779,7 @@
         <v>13341</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="28">
         <v>44582</v>
@@ -3536,7 +3823,7 @@
         <v>2740</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="28">
         <v>44583</v>
@@ -3551,11 +3838,11 @@
       <c r="I24" s="31">
         <v>100</v>
       </c>
-      <c r="J24" s="189">
+      <c r="J24" s="181">
         <v>44583</v>
       </c>
       <c r="K24" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L24" s="63">
         <v>8417</v>
@@ -3586,7 +3873,7 @@
         <v>1083</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="28">
         <v>44584</v>
@@ -3720,7 +4007,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="28">
         <v>44587</v>
@@ -3809,24 +4096,29 @@
       <c r="E30" s="28">
         <v>44589</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <v>88236</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="37">
         <v>44589</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>51</v>
+      </c>
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <f>50000+38185</f>
+        <v>88185</v>
       </c>
       <c r="N30" s="33">
         <v>0</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88236</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="1"/>
@@ -3840,34 +4132,48 @@
         <v>44590</v>
       </c>
       <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="84"/>
+        <v>680</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" s="28">
         <v>44590</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <v>90540</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="37">
         <v>44590</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="I31" s="31">
+        <v>79</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44590</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="77">
+        <f>9500+2571.43</f>
+        <v>12071.43</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <f>40000+28480</f>
+        <v>68480</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>9229</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90539.43</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.57000000000698492</v>
       </c>
       <c r="R31" s="8"/>
     </row>
@@ -3877,30 +4183,37 @@
         <v>44591</v>
       </c>
       <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="78"/>
+        <v>21227</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="28">
         <v>44591</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>107820</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="37">
         <v>44591</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>10</v>
+      </c>
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>50000+32688</f>
+        <v>82688</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>3895</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107820</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="1"/>
@@ -3947,9 +4260,15 @@
       <c r="G34" s="2"/>
       <c r="H34" s="37"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
+      <c r="J34" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="82">
+        <v>549</v>
+      </c>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -3958,11 +4277,11 @@
       </c>
       <c r="P34" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="R34" s="8"/>
     </row>
@@ -4006,7 +4325,7 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="190"/>
+      <c r="K36" s="182"/>
       <c r="L36" s="82"/>
       <c r="M36" s="32">
         <v>0</v>
@@ -4121,21 +4440,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="204">
+      <c r="M40" s="215">
         <f>SUM(M5:M39)</f>
-        <v>1287677</v>
-      </c>
-      <c r="N40" s="206">
+        <v>1527030</v>
+      </c>
+      <c r="N40" s="217">
         <f>SUM(N5:N39)</f>
-        <v>36889</v>
+        <v>50013</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1409312.1400000001</v>
+        <v>1696456.57</v>
       </c>
       <c r="Q40" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>40.139999999999418</v>
+        <v>588.56999999999243</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4151,8 +4470,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="207"/>
+      <c r="M41" s="216"/>
+      <c r="N41" s="218"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -4325,7 +4644,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>52990</v>
+        <v>74897</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -4333,7 +4652,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1399866</v>
+        <v>1686462</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -4341,7 +4660,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>1182</v>
+        <v>1322</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -4349,7 +4668,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>30574.14</v>
+        <v>43194.57</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -4367,32 +4686,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="208" t="s">
+      <c r="H53" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="209"/>
+      <c r="I53" s="220"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="210">
+      <c r="K53" s="221">
         <f>I51+L51</f>
-        <v>31756.14</v>
-      </c>
-      <c r="L53" s="211"/>
-      <c r="M53" s="212">
+        <v>44516.57</v>
+      </c>
+      <c r="L53" s="222"/>
+      <c r="M53" s="223">
         <f>N40+M40</f>
-        <v>1324566</v>
-      </c>
-      <c r="N53" s="213"/>
+        <v>1577043</v>
+      </c>
+      <c r="N53" s="224"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="214" t="s">
+      <c r="D54" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="214"/>
+      <c r="E54" s="225"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1315119.8600000001</v>
+        <v>1567048.43</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -4400,22 +4719,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="215" t="s">
+      <c r="D55" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="215"/>
+      <c r="E55" s="226"/>
       <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="216" t="s">
+        <v>-1540248.71</v>
+      </c>
+      <c r="I55" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="217"/>
-      <c r="K55" s="218">
+      <c r="J55" s="228"/>
+      <c r="K55" s="229">
         <f>F57+F58+F59</f>
-        <v>1315119.8600000001</v>
-      </c>
-      <c r="L55" s="219"/>
+        <v>181424.23999999996</v>
+      </c>
+      <c r="L55" s="230"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -4439,18 +4758,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1315119.8600000001</v>
+        <v>26799.719999999972</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="220">
+      <c r="K57" s="231">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="221"/>
+      <c r="L57" s="232"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -4460,27 +4779,29 @@
         <v>19</v>
       </c>
       <c r="F58" s="132">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
-      <c r="D59" s="197" t="s">
+      <c r="C59" s="133">
+        <v>44591</v>
+      </c>
+      <c r="D59" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="198"/>
+      <c r="E59" s="209"/>
       <c r="F59" s="134">
-        <v>0</v>
-      </c>
-      <c r="I59" s="199" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="200"/>
-      <c r="K59" s="201">
+        <v>154314.51999999999</v>
+      </c>
+      <c r="I59" s="210" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59" s="211"/>
+      <c r="K59" s="212">
         <f>K55+K57</f>
-        <v>1094060.1600000001</v>
-      </c>
-      <c r="L59" s="201"/>
+        <v>-39635.46000000005</v>
+      </c>
+      <c r="L59" s="212"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -4660,1333 +4981,1778 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="117" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="154" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="B2" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="C2" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="D2" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="E2" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="159" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="188">
-        <f>C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="165">
+      <c r="F2" s="157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="194" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="195">
+        <v>4720</v>
+      </c>
+      <c r="D3" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E3" s="191">
+        <v>4720</v>
+      </c>
+      <c r="F3" s="158">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="194" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="195">
+        <v>15065.6</v>
+      </c>
+      <c r="D4" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E4" s="191">
+        <v>15065.6</v>
+      </c>
+      <c r="F4" s="196">
         <f>C4-E4+F3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="163"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="165">
+    <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="194" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="195">
+        <v>6166.9</v>
+      </c>
+      <c r="D5" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E5" s="191">
+        <v>6166.9</v>
+      </c>
+      <c r="F5" s="161">
         <f>C5-E5+F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="163"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="166">
+      <c r="A6" s="193" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="194" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="195">
+        <v>94565.5</v>
+      </c>
+      <c r="D6" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E6" s="191">
+        <v>94565.5</v>
+      </c>
+      <c r="F6" s="161">
         <f>F5+C6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="167"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="166">
+      <c r="A7" s="193" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="194" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="195">
+        <v>5455.5</v>
+      </c>
+      <c r="D7" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E7" s="191">
+        <v>5455.5</v>
+      </c>
+      <c r="F7" s="161">
         <f t="shared" ref="F7" si="0">F6+C7-E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="166">
+      <c r="A8" s="193" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="194" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="195">
+        <v>10495</v>
+      </c>
+      <c r="D8" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E8" s="191">
+        <v>10495</v>
+      </c>
+      <c r="F8" s="161">
         <f>F7+C8-E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="166">
+      <c r="A9" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="194" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="195">
+        <v>12376.64</v>
+      </c>
+      <c r="D9" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E9" s="191">
+        <v>12376.64</v>
+      </c>
+      <c r="F9" s="161">
         <f>F8+C9-E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="166">
+      <c r="A10" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="195">
+        <v>24073.5</v>
+      </c>
+      <c r="D10" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E10" s="191">
+        <v>24073.5</v>
+      </c>
+      <c r="F10" s="161">
         <f>F9+C10-E10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="166">
+      <c r="A11" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="194" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="195">
+        <v>15490</v>
+      </c>
+      <c r="D11" s="200">
+        <v>44568</v>
+      </c>
+      <c r="E11" s="191">
+        <v>15490</v>
+      </c>
+      <c r="F11" s="161">
         <f t="shared" ref="F11:F74" si="1">F10+C11-E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="163"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="167"/>
+      <c r="A12" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="194" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="195">
+        <v>19125.400000000001</v>
+      </c>
+      <c r="D12" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E12" s="197">
+        <v>19125.400000000001</v>
+      </c>
+      <c r="F12" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="166">
+      <c r="A13" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="194" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="195">
+        <v>1916.6</v>
+      </c>
+      <c r="D13" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E13" s="197">
+        <v>1916.6</v>
+      </c>
+      <c r="F13" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="163"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="168">
+      <c r="A14" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="194" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="195">
+        <v>33608.75</v>
+      </c>
+      <c r="D14" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E14" s="197">
+        <v>33608.75</v>
+      </c>
+      <c r="F14" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="194" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="195">
+        <v>36639.949999999997</v>
+      </c>
+      <c r="D15" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E15" s="197">
+        <v>36639.949999999997</v>
+      </c>
+      <c r="F15" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="166">
+      <c r="A16" s="193" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="195">
+        <v>11449.6</v>
+      </c>
+      <c r="D16" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E16" s="197">
+        <v>11449.6</v>
+      </c>
+      <c r="F16" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="166">
+      <c r="A17" s="193" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="194" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="195">
+        <v>54857.7</v>
+      </c>
+      <c r="D17" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E17" s="197">
+        <v>54857.7</v>
+      </c>
+      <c r="F17" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="166">
+      <c r="A18" s="193" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="194" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="195">
+        <v>8076.8</v>
+      </c>
+      <c r="D18" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E18" s="197">
+        <v>8076.8</v>
+      </c>
+      <c r="F18" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="166">
+      <c r="A19" s="193" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="194" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="195">
+        <v>65864.160000000003</v>
+      </c>
+      <c r="D19" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E19" s="197">
+        <v>65864.160000000003</v>
+      </c>
+      <c r="F19" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="166">
+      <c r="A20" s="193" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="194" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="195">
+        <v>30221.4</v>
+      </c>
+      <c r="D20" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E20" s="197">
+        <v>30221.4</v>
+      </c>
+      <c r="F20" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="166">
+      <c r="A21" s="193" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="194" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="195">
+        <v>2528</v>
+      </c>
+      <c r="D21" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E21" s="197">
+        <v>2528</v>
+      </c>
+      <c r="F21" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="166">
+      <c r="A22" s="193" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="195">
+        <v>0</v>
+      </c>
+      <c r="D22" s="202" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="197">
+        <v>0</v>
+      </c>
+      <c r="F22" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="166">
+      <c r="A23" s="193" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="194" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="195">
+        <v>52417.4</v>
+      </c>
+      <c r="D23" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E23" s="197">
+        <v>52417.4</v>
+      </c>
+      <c r="F23" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="163"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="167"/>
+      <c r="A24" s="193" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="195">
+        <v>13493.8</v>
+      </c>
+      <c r="D24" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E24" s="197">
+        <v>13493.8</v>
+      </c>
+      <c r="F24" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="166">
+      <c r="A25" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="194" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="195">
+        <v>47877.760000000002</v>
+      </c>
+      <c r="D25" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E25" s="197">
+        <v>47877.760000000002</v>
+      </c>
+      <c r="F25" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="166">
+      <c r="A26" s="193" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="194" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="195">
+        <v>700</v>
+      </c>
+      <c r="D26" s="200">
+        <v>44575</v>
+      </c>
+      <c r="E26" s="197">
+        <v>700</v>
+      </c>
+      <c r="F26" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="166">
+      <c r="A27" s="193" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="194" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="195">
+        <v>29321.599999999999</v>
+      </c>
+      <c r="D27" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E27" s="192">
+        <v>29321.599999999999</v>
+      </c>
+      <c r="F27" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="163"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="166">
+      <c r="A28" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="195">
+        <v>76289.399999999994</v>
+      </c>
+      <c r="D28" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E28" s="192">
+        <v>76289.399999999994</v>
+      </c>
+      <c r="F28" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="163"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="166">
+      <c r="A29" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="195">
+        <v>20931.8</v>
+      </c>
+      <c r="D29" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E29" s="192">
+        <v>20931.8</v>
+      </c>
+      <c r="F29" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="163"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="166">
+      <c r="A30" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="194" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="195">
+        <v>39513.49</v>
+      </c>
+      <c r="D30" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E30" s="192">
+        <v>39513.49</v>
+      </c>
+      <c r="F30" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="166">
+      <c r="A31" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="195">
+        <v>38406.839999999997</v>
+      </c>
+      <c r="D31" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E31" s="192">
+        <v>38406.839999999997</v>
+      </c>
+      <c r="F31" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="163"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="167"/>
+      <c r="A32" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="194" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="195">
+        <v>1462</v>
+      </c>
+      <c r="D32" s="203" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="204">
+        <v>1462</v>
+      </c>
+      <c r="F32" s="161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="166">
+      <c r="A33" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="194" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="195">
+        <v>6217.6</v>
+      </c>
+      <c r="D33" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E33" s="192">
+        <v>6217.6</v>
+      </c>
+      <c r="F33" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="163"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="166">
+      <c r="A34" s="193" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="194" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="195">
+        <v>46665.9</v>
+      </c>
+      <c r="D34" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E34" s="192">
+        <v>46665.9</v>
+      </c>
+      <c r="F34" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="163"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="166">
+      <c r="A35" s="193" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="194" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="195">
+        <v>8897.7999999999993</v>
+      </c>
+      <c r="D35" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E35" s="192">
+        <v>8897.7999999999993</v>
+      </c>
+      <c r="F35" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="163"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="166">
+      <c r="A36" s="193" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="194" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="195">
+        <v>7616.4</v>
+      </c>
+      <c r="D36" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E36" s="192">
+        <v>7616.4</v>
+      </c>
+      <c r="F36" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="166">
+      <c r="A37" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="195">
+        <v>100870.28</v>
+      </c>
+      <c r="D37" s="200">
+        <v>44582</v>
+      </c>
+      <c r="E37" s="192">
+        <v>100870.28</v>
+      </c>
+      <c r="F37" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="163"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="166">
+      <c r="A38" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="194" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="195">
+        <v>5418.8</v>
+      </c>
+      <c r="D38" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="205">
+        <v>5418.8</v>
+      </c>
+      <c r="F38" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="163"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="166">
+      <c r="A39" s="193" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="194" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="195">
+        <v>100279.24</v>
+      </c>
+      <c r="D39" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E39" s="205">
+        <v>100279.24</v>
+      </c>
+      <c r="F39" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="163"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="166">
+      <c r="A40" s="193" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="195">
+        <v>6011.8</v>
+      </c>
+      <c r="D40" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E40" s="205">
+        <v>6011.8</v>
+      </c>
+      <c r="F40" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="166">
+      <c r="A41" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="194" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="195">
+        <v>51496.14</v>
+      </c>
+      <c r="D41" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E41" s="205">
+        <v>51496.14</v>
+      </c>
+      <c r="F41" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="163"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="166">
+      <c r="A42" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="194" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="195">
+        <v>3248.8</v>
+      </c>
+      <c r="D42" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E42" s="205">
+        <v>3248.8</v>
+      </c>
+      <c r="F42" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="163"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="166">
+      <c r="A43" s="193" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="195">
+        <v>114946.5</v>
+      </c>
+      <c r="D43" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E43" s="205">
+        <v>114946.5</v>
+      </c>
+      <c r="F43" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="163"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="166">
+      <c r="A44" s="193" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="195">
+        <v>11723</v>
+      </c>
+      <c r="D44" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E44" s="205">
+        <v>11723</v>
+      </c>
+      <c r="F44" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="163"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="166">
+      <c r="A45" s="193" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="195">
+        <v>5262.6</v>
+      </c>
+      <c r="D45" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E45" s="205">
+        <v>5262.6</v>
+      </c>
+      <c r="F45" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="166">
+      <c r="A46" s="193" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="194" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="195">
+        <v>10932.6</v>
+      </c>
+      <c r="D46" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E46" s="205">
+        <v>10932.6</v>
+      </c>
+      <c r="F46" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="163"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="166">
+      <c r="A47" s="193" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="194" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="195">
+        <v>1306.5</v>
+      </c>
+      <c r="D47" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E47" s="205">
+        <v>1306.5</v>
+      </c>
+      <c r="F47" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="163"/>
-      <c r="B48" s="164"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="166">
+      <c r="A48" s="193" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="194" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="195">
+        <v>91103.16</v>
+      </c>
+      <c r="D48" s="200">
+        <v>44589</v>
+      </c>
+      <c r="E48" s="205">
+        <v>91103.16</v>
+      </c>
+      <c r="F48" s="161">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A49" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="194" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="195">
+        <v>81224.759999999995</v>
+      </c>
+      <c r="D49" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="195"/>
+      <c r="F49" s="161">
+        <f t="shared" si="1"/>
+        <v>81224.759999999995</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="163"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A50" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="195">
+        <v>4089.6</v>
+      </c>
+      <c r="D50" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="195">
+        <v>0</v>
+      </c>
+      <c r="F50" s="161">
+        <f t="shared" si="1"/>
+        <v>85314.36</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="163"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A51" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="194" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="195">
+        <v>8445.7999999999993</v>
+      </c>
+      <c r="D51" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="195">
+        <v>0</v>
+      </c>
+      <c r="F51" s="161">
+        <f t="shared" si="1"/>
+        <v>93760.16</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="163"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A52" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="195">
+        <v>121165.94</v>
+      </c>
+      <c r="D52" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="195">
+        <v>0</v>
+      </c>
+      <c r="F52" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="163"/>
-      <c r="B53" s="164"/>
+      <c r="A53" s="159"/>
+      <c r="B53" s="160"/>
       <c r="C53" s="86"/>
-      <c r="D53" s="163"/>
+      <c r="D53" s="159"/>
       <c r="E53" s="86"/>
-      <c r="F53" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F53" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="163"/>
-      <c r="B54" s="164"/>
+      <c r="A54" s="159"/>
+      <c r="B54" s="160"/>
       <c r="C54" s="86"/>
-      <c r="D54" s="163"/>
+      <c r="D54" s="159"/>
       <c r="E54" s="86"/>
-      <c r="F54" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F54" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
-      <c r="B55" s="164"/>
+      <c r="A55" s="159"/>
+      <c r="B55" s="160"/>
       <c r="C55" s="86"/>
-      <c r="D55" s="163"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="86"/>
-      <c r="F55" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F55" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="169"/>
-      <c r="B56" s="164"/>
+      <c r="A56" s="163"/>
+      <c r="B56" s="160"/>
       <c r="C56" s="86"/>
-      <c r="D56" s="163"/>
+      <c r="D56" s="159"/>
       <c r="E56" s="86"/>
-      <c r="F56" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F56" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="169"/>
-      <c r="B57" s="164"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="86"/>
-      <c r="D57" s="163"/>
+      <c r="D57" s="159"/>
       <c r="E57" s="86"/>
-      <c r="F57" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F57" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="164"/>
+      <c r="A58" s="163"/>
+      <c r="B58" s="160"/>
       <c r="C58" s="86"/>
-      <c r="D58" s="163"/>
+      <c r="D58" s="159"/>
       <c r="E58" s="86"/>
-      <c r="F58" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F58" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
-      <c r="B59" s="164"/>
+      <c r="A59" s="159"/>
+      <c r="B59" s="160"/>
       <c r="C59" s="86"/>
-      <c r="D59" s="163"/>
+      <c r="D59" s="159"/>
       <c r="E59" s="86"/>
-      <c r="F59" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F59" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="163"/>
-      <c r="B60" s="164"/>
+      <c r="A60" s="159"/>
+      <c r="B60" s="160"/>
       <c r="C60" s="86"/>
-      <c r="D60" s="163"/>
+      <c r="D60" s="159"/>
       <c r="E60" s="86"/>
-      <c r="F60" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F60" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="163"/>
-      <c r="B61" s="164"/>
+      <c r="A61" s="159"/>
+      <c r="B61" s="160"/>
       <c r="C61" s="86"/>
-      <c r="D61" s="163"/>
+      <c r="D61" s="159"/>
       <c r="E61" s="86"/>
-      <c r="F61" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F61" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="169"/>
-      <c r="B62" s="164"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="160"/>
       <c r="C62" s="86"/>
-      <c r="D62" s="163"/>
+      <c r="D62" s="159"/>
       <c r="E62" s="86"/>
-      <c r="F62" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F62" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="169"/>
-      <c r="B63" s="164"/>
+      <c r="A63" s="163"/>
+      <c r="B63" s="160"/>
       <c r="C63" s="86"/>
-      <c r="D63" s="163"/>
+      <c r="D63" s="159"/>
       <c r="E63" s="86"/>
-      <c r="F63" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F63" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="169"/>
-      <c r="B64" s="164"/>
+      <c r="A64" s="163"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="86"/>
-      <c r="D64" s="163"/>
+      <c r="D64" s="159"/>
       <c r="E64" s="86"/>
-      <c r="F64" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F64" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="170"/>
-      <c r="B65" s="171"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="163"/>
+      <c r="A65" s="164"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="159"/>
       <c r="E65" s="86"/>
-      <c r="F65" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F65" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="170"/>
-      <c r="B66" s="171"/>
-      <c r="C66" s="172"/>
-      <c r="D66" s="163"/>
+      <c r="A66" s="164"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="159"/>
       <c r="E66" s="86"/>
-      <c r="F66" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F66" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="170"/>
-      <c r="B67" s="171"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="163"/>
+      <c r="A67" s="164"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="159"/>
       <c r="E67" s="86"/>
-      <c r="F67" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F67" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="170"/>
-      <c r="B68" s="171"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="163"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="159"/>
       <c r="E68" s="86"/>
-      <c r="F68" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F68" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="170"/>
-      <c r="B69" s="171"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="163"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="159"/>
       <c r="E69" s="86"/>
-      <c r="F69" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F69" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="170"/>
-      <c r="B70" s="171"/>
-      <c r="C70" s="172"/>
-      <c r="D70" s="163"/>
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="159"/>
       <c r="E70" s="86"/>
-      <c r="F70" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F70" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="170"/>
-      <c r="B71" s="171"/>
-      <c r="C71" s="172"/>
-      <c r="D71" s="163"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="159"/>
       <c r="E71" s="86"/>
-      <c r="F71" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F71" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="170"/>
-      <c r="B72" s="171"/>
-      <c r="C72" s="172"/>
-      <c r="D72" s="163"/>
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="159"/>
       <c r="E72" s="86"/>
-      <c r="F72" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F72" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="170"/>
-      <c r="B73" s="171"/>
-      <c r="C73" s="172"/>
-      <c r="D73" s="163"/>
+      <c r="A73" s="164"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="159"/>
       <c r="E73" s="86"/>
-      <c r="F73" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F73" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="170"/>
-      <c r="B74" s="171"/>
-      <c r="C74" s="172"/>
-      <c r="D74" s="163"/>
+      <c r="A74" s="164"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="159"/>
       <c r="E74" s="86"/>
-      <c r="F74" s="166">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F74" s="161">
+        <f t="shared" si="1"/>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="170"/>
-      <c r="B75" s="171"/>
-      <c r="C75" s="172"/>
-      <c r="D75" s="163"/>
+      <c r="A75" s="164"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="159"/>
       <c r="E75" s="86"/>
-      <c r="F75" s="166">
+      <c r="F75" s="161">
         <f t="shared" ref="F75:F99" si="2">F74+C75-E75</f>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="170"/>
-      <c r="B76" s="171"/>
-      <c r="C76" s="172"/>
-      <c r="D76" s="163"/>
+      <c r="A76" s="164"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="159"/>
       <c r="E76" s="86"/>
-      <c r="F76" s="166">
+      <c r="F76" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="170"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="172"/>
-      <c r="D77" s="163"/>
+      <c r="A77" s="164"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="159"/>
       <c r="E77" s="86"/>
-      <c r="F77" s="166">
+      <c r="F77" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="170"/>
-      <c r="B78" s="171"/>
-      <c r="C78" s="172"/>
-      <c r="D78" s="163"/>
+      <c r="A78" s="164"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="159"/>
       <c r="E78" s="86"/>
-      <c r="F78" s="166">
+      <c r="F78" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="170"/>
-      <c r="B79" s="171"/>
-      <c r="C79" s="172"/>
-      <c r="D79" s="163"/>
+      <c r="A79" s="164"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="159"/>
       <c r="E79" s="86"/>
-      <c r="F79" s="166">
+      <c r="F79" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="170"/>
-      <c r="B80" s="171"/>
-      <c r="C80" s="172"/>
-      <c r="D80" s="163"/>
+      <c r="A80" s="164"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="159"/>
       <c r="E80" s="86"/>
-      <c r="F80" s="166">
+      <c r="F80" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="170"/>
-      <c r="B81" s="171"/>
-      <c r="C81" s="172"/>
-      <c r="D81" s="163"/>
+      <c r="A81" s="164"/>
+      <c r="B81" s="165"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="159"/>
       <c r="E81" s="86"/>
-      <c r="F81" s="166">
+      <c r="F81" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="170"/>
-      <c r="B82" s="171"/>
-      <c r="C82" s="172"/>
-      <c r="D82" s="163"/>
+      <c r="A82" s="164"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="159"/>
       <c r="E82" s="86"/>
-      <c r="F82" s="166">
+      <c r="F82" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="173"/>
-      <c r="B83" s="174"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="176"/>
+      <c r="A83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="170"/>
       <c r="E83" s="34"/>
-      <c r="F83" s="166">
+      <c r="F83" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="173"/>
-      <c r="B84" s="174"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="176"/>
+      <c r="A84" s="167"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="170"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="166">
+      <c r="F84" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="173"/>
-      <c r="B85" s="174"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="176"/>
+      <c r="A85" s="167"/>
+      <c r="B85" s="168"/>
+      <c r="C85" s="169"/>
+      <c r="D85" s="170"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="166">
+      <c r="F85" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="173"/>
-      <c r="B86" s="174"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="176"/>
+      <c r="A86" s="167"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="170"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="166">
+      <c r="F86" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="173"/>
-      <c r="B87" s="174"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="176"/>
+      <c r="A87" s="167"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="170"/>
       <c r="E87" s="34"/>
-      <c r="F87" s="166">
+      <c r="F87" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="173"/>
-      <c r="B88" s="174"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="176"/>
+      <c r="A88" s="167"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="170"/>
       <c r="E88" s="34"/>
-      <c r="F88" s="166">
+      <c r="F88" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="170"/>
-      <c r="B89" s="171"/>
-      <c r="C89" s="172"/>
-      <c r="D89" s="177"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="165"/>
+      <c r="C89" s="166"/>
+      <c r="D89" s="171"/>
       <c r="E89" s="86"/>
-      <c r="F89" s="166">
+      <c r="F89" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="170"/>
-      <c r="B90" s="171"/>
-      <c r="C90" s="172"/>
-      <c r="D90" s="177"/>
+      <c r="A90" s="164"/>
+      <c r="B90" s="165"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="171"/>
       <c r="E90" s="86"/>
-      <c r="F90" s="166">
+      <c r="F90" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="170"/>
-      <c r="B91" s="171"/>
-      <c r="C91" s="172"/>
-      <c r="D91" s="177"/>
+      <c r="A91" s="164"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="171"/>
       <c r="E91" s="86"/>
-      <c r="F91" s="166">
+      <c r="F91" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="170"/>
-      <c r="B92" s="171"/>
-      <c r="C92" s="172"/>
-      <c r="D92" s="177"/>
+      <c r="A92" s="164"/>
+      <c r="B92" s="165"/>
+      <c r="C92" s="166"/>
+      <c r="D92" s="171"/>
       <c r="E92" s="86"/>
-      <c r="F92" s="166">
+      <c r="F92" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="170"/>
-      <c r="B93" s="171"/>
-      <c r="C93" s="172"/>
-      <c r="D93" s="177"/>
+      <c r="A93" s="164"/>
+      <c r="B93" s="165"/>
+      <c r="C93" s="166"/>
+      <c r="D93" s="171"/>
       <c r="E93" s="86"/>
-      <c r="F93" s="166">
+      <c r="F93" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="170"/>
-      <c r="B94" s="171"/>
-      <c r="C94" s="172"/>
-      <c r="D94" s="177"/>
+      <c r="A94" s="164"/>
+      <c r="B94" s="165"/>
+      <c r="C94" s="166"/>
+      <c r="D94" s="171"/>
       <c r="E94" s="86"/>
-      <c r="F94" s="166">
+      <c r="F94" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="170"/>
-      <c r="B95" s="171"/>
-      <c r="C95" s="172"/>
-      <c r="D95" s="177"/>
+      <c r="A95" s="164"/>
+      <c r="B95" s="165"/>
+      <c r="C95" s="166"/>
+      <c r="D95" s="171"/>
       <c r="E95" s="86"/>
-      <c r="F95" s="166">
+      <c r="F95" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="170"/>
-      <c r="B96" s="171"/>
-      <c r="C96" s="172"/>
-      <c r="D96" s="177"/>
+      <c r="A96" s="164"/>
+      <c r="B96" s="165"/>
+      <c r="C96" s="166"/>
+      <c r="D96" s="171"/>
       <c r="E96" s="86"/>
-      <c r="F96" s="166">
+      <c r="F96" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="170"/>
-      <c r="B97" s="171"/>
-      <c r="C97" s="172"/>
-      <c r="D97" s="177"/>
+      <c r="A97" s="164"/>
+      <c r="B97" s="165"/>
+      <c r="C97" s="166"/>
+      <c r="D97" s="171"/>
       <c r="E97" s="86"/>
-      <c r="F97" s="166">
+      <c r="F97" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="170"/>
-      <c r="B98" s="171"/>
-      <c r="C98" s="172"/>
-      <c r="D98" s="177"/>
+      <c r="A98" s="164"/>
+      <c r="B98" s="165"/>
+      <c r="C98" s="166"/>
+      <c r="D98" s="171"/>
       <c r="E98" s="86"/>
-      <c r="F98" s="166">
+      <c r="F98" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="178"/>
-      <c r="B99" s="179"/>
+      <c r="A99" s="172"/>
+      <c r="B99" s="173"/>
       <c r="C99" s="34">
         <v>0</v>
       </c>
-      <c r="D99" s="180"/>
+      <c r="D99" s="174"/>
       <c r="E99" s="34"/>
-      <c r="F99" s="166">
+      <c r="F99" s="161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="181"/>
-      <c r="B100" s="182"/>
-      <c r="C100" s="183">
+      <c r="A100" s="175"/>
+      <c r="B100" s="176"/>
+      <c r="C100" s="177">
         <f>SUM(C5:C99)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="184"/>
-      <c r="E100" s="185">
+        <v>1540248.7100000004</v>
+      </c>
+      <c r="D100" s="189"/>
+      <c r="E100" s="178">
         <f>SUM(E5:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="186">
+        <v>1325322.6100000003</v>
+      </c>
+      <c r="F100" s="179">
         <f>F99</f>
-        <v>0</v>
+        <v>214926.1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="117"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="116"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="1"/>
+      <c r="D101" s="170"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="117"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="116"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="1"/>
+      <c r="D102" s="170"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103" s="24"/>
-      <c r="D103" s="24"/>
+      <c r="B103" s="190"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="B104" s="190"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="B105" s="190"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="F106"/>
+      <c r="B106" s="190"/>
+      <c r="F106" s="117"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="F107"/>
+      <c r="B107" s="190"/>
+      <c r="F107" s="117"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="F108"/>
+      <c r="B108" s="190"/>
+      <c r="F108" s="117"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="F109"/>
+      <c r="B109" s="190"/>
+      <c r="F109" s="117"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="F110"/>
+      <c r="B110" s="190"/>
+      <c r="F110" s="117"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="F111"/>
+      <c r="B111" s="190"/>
+      <c r="F111" s="117"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115"/>
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="B116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116"/>
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="B117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117"/>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="B118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118"/>
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119"/>
-      <c r="B119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119"/>
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120"/>
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128"/>
+      <c r="B112" s="190"/>
+      <c r="F112" s="117"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="190"/>
+      <c r="F113" s="117"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="190"/>
+      <c r="F114" s="117"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="190"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="117"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="190"/>
+      <c r="E116" s="117"/>
+      <c r="F116" s="117"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="190"/>
+      <c r="E117" s="117"/>
+      <c r="F117" s="117"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="190"/>
+      <c r="E118" s="117"/>
+      <c r="F118" s="117"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="190"/>
+      <c r="E119" s="117"/>
+      <c r="F119" s="117"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="190"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="117"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="190"/>
+      <c r="E121" s="117"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="190"/>
+      <c r="E122" s="117"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="190"/>
+      <c r="E123" s="117"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="190"/>
+      <c r="E124" s="117"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="190"/>
+      <c r="E125" s="117"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="190"/>
+      <c r="E126" s="117"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="190"/>
+      <c r="E127" s="117"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="190"/>
+      <c r="E128" s="117"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129"/>
+      <c r="B129" s="190"/>
+      <c r="E129" s="117"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="24"/>
+      <c r="B130" s="190"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="24"/>
+      <c r="B131" s="190"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="24"/>
-      <c r="D132" s="24"/>
+      <c r="B132" s="190"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="24"/>
+      <c r="B133" s="190"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="24"/>
+      <c r="B134" s="190"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="24"/>
+      <c r="B135" s="190"/>
     </row>
     <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C136" s="187"/>
+      <c r="C136" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
